--- a/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2107C5C3-AE7C-41B9-98A1-BB8CE75C56D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E44FA6-AFC0-46B5-836A-CADE5B318A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="20715" windowHeight="13274" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <definedName name="area_S7">DATA!$B$12</definedName>
     <definedName name="area_S7_B1">DATA!$C$12</definedName>
     <definedName name="area_S7_B2">DATA!$D$12</definedName>
+    <definedName name="f0f">'D - FLOOR'!$S$13</definedName>
     <definedName name="mass_bare">'D - FLOOR'!$B$31</definedName>
     <definedName name="surface_A">DATA!$B$22</definedName>
     <definedName name="surface_B1">DATA!$C$22</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="96">
   <si>
     <t>classrooms</t>
   </si>
@@ -304,9 +305,6 @@
     <t>shift</t>
   </si>
   <si>
-    <t>Ln,1,w [Hz]</t>
-  </si>
-  <si>
     <t>FLOATING FLOOR</t>
   </si>
   <si>
@@ -317,9 +315,6 @@
   </si>
   <si>
     <t>Ln,r [Hz]</t>
-  </si>
-  <si>
-    <t>Ln,r,w [Hz]</t>
   </si>
   <si>
     <t>Ln,r</t>
@@ -387,12 +382,18 @@
   <si>
     <t>sound reduction index for the floor</t>
   </si>
+  <si>
+    <t>Ln,1,w [dB]</t>
+  </si>
+  <si>
+    <t>Ln,r,w [dB]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +521,15 @@
       <i/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -982,9 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,16 +1033,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1059,7 +1057,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,22 +1078,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1095,27 +1090,42 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,7 +1143,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1195,7 +1205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1266,22 +1276,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.1709505143898206E-2</c:v>
+                  <c:v>7.3459262480994297E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2459517305022463E-2</c:v>
+                  <c:v>5.3590193113911062E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.500129562324777E-2</c:v>
+                  <c:v>4.6606972106571984E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2867523366717631E-2</c:v>
+                  <c:v>3.4149507813235815E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0316351460800011E-2</c:v>
+                  <c:v>3.1170124162752017E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9650059997292776E-2</c:v>
+                  <c:v>3.1244795148370939E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,7 +1371,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1423,7 +1433,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1471,7 +1481,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1485,7 +1495,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1547,7 +1557,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1618,22 +1628,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.2116459868556318E-2</c:v>
+                  <c:v>7.3923148606776651E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.285600314794342E-2</c:v>
+                  <c:v>5.4045598860311156E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5280387170448598E-2</c:v>
+                  <c:v>4.6922450284426306E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3074282994302616E-2</c:v>
+                  <c:v>3.4382570218562752E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0450115334345978E-2</c:v>
+                  <c:v>3.1320701183197922E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9698728856727582E-2</c:v>
+                  <c:v>3.1291376750845361E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,7 +1723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1775,7 +1785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1823,7 +1833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1837,7 +1847,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1899,7 +1909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1996,22 +2006,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17609585752391221</c:v>
+                  <c:v>0.1851824338421468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11683525758786836</c:v>
+                  <c:v>0.11989617113525272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16751889175555923</c:v>
+                  <c:v>0.17047592448424267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16444483244966024</c:v>
+                  <c:v>0.16532356554326968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16018640056307423</c:v>
+                  <c:v>0.16144322041694723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15680215533881706</c:v>
+                  <c:v>0.15775092634196683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +2101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2153,7 +2163,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2201,7 +2211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2215,7 +2225,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2277,7 +2287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2348,22 +2358,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.10126596957789474</c:v>
+                  <c:v>9.2796481929268204E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15113404491959645</c:v>
+                  <c:v>0.14330885797888879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24232382619875081</c:v>
+                  <c:v>0.24149778251730669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29091329408564193</c:v>
+                  <c:v>0.30941426704234282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28801289051416873</c:v>
+                  <c:v>0.30485141113974895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2839520969940072</c:v>
+                  <c:v>0.30220803261721307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2505,7 +2515,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2553,7 +2563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2567,7 +2577,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2629,7 +2639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2700,22 +2710,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.10166484815359023</c:v>
+                  <c:v>9.3312550174082035E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15149012564619255</c:v>
+                  <c:v>0.14377118848435952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24249736092455951</c:v>
+                  <c:v>0.2417052231212172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29095711777475808</c:v>
+                  <c:v>0.30934661315119105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28796368708539477</c:v>
+                  <c:v>0.30468383848774583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28379877735854958</c:v>
+                  <c:v>0.30190701587090873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2857,7 +2867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2905,7 +2915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2919,7 +2929,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2981,7 +2991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3052,22 +3062,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.7203641697807763E-2</c:v>
+                  <c:v>9.9312589188717118E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1376603131364271</c:v>
+                  <c:v>0.13996548143239537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20874716917055816</c:v>
+                  <c:v>0.2102016664118154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24000485666924784</c:v>
+                  <c:v>0.23793343480866094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23942368030712854</c:v>
+                  <c:v>0.2376104741489283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23233171097873043</c:v>
+                  <c:v>0.23033740055394689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,7 +3157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -3209,7 +3219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -3257,7 +3267,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15818,29 +15828,29 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15851,23 +15861,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -15884,7 +15894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -15901,7 +15911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -15918,7 +15928,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -15932,7 +15942,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -15949,24 +15959,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <f>B17*B18</f>
-        <v>62.05</v>
+        <f>B17*B16</f>
+        <v>25.5</v>
       </c>
       <c r="C10" s="18">
-        <f>C17*C18</f>
-        <v>39.44</v>
+        <f>C17*C16</f>
+        <v>16.32</v>
       </c>
       <c r="D10" s="19">
-        <f>D17*D18</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f>D17*D16</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -15983,7 +15993,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -16000,17 +16010,17 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="67"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -16021,7 +16031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -16035,7 +16045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -16049,7 +16059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -16063,7 +16073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -16075,7 +16085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -16092,7 +16102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -16103,21 +16113,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B5:B12)</f>
-        <v>255.45</v>
+        <v>218.89999999999998</v>
       </c>
       <c r="C22" s="18">
         <f>SUM(C5:C12)</f>
-        <v>162.47999999999999</v>
+        <v>139.35999999999999</v>
       </c>
       <c r="D22" s="19">
         <f>SUM(D5:D12)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -16143,31 +16153,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16198,16 +16208,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16239,13 +16249,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
-        <v>0.13990604815032295</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.14322978529008681</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16277,13 +16287,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
-        <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
-        <v>0.1030514777843022</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="73">
+        <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
+        <v>0.10523069894929193</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -16315,13 +16325,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>8.8631826189078097E-2</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.174280493375972E-2</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -16353,13 +16363,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>6.500685065570562E-2</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.7512562814070379E-2</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -16391,13 +16401,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>6.001370131141124E-2</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.1685701233439943E-2</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -16429,36 +16439,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>5.870816206694069E-2</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.1831886706258575E-2</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16469,152 +16479,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_A</f>
-        <v>35.738999999999997</v>
+        <v>31.353000000000002</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
-        <v>41.552437292625306</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>36.594409401376723</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>26.324499999999993</v>
+        <v>23.035000000000004</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>29.348952975552692</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>25.744066065912751</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>22.640999999999998</v>
+        <v>20.0825</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>24.842868832390497</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>22.111027701283842</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>16.605999999999998</v>
+        <v>14.778500000000005</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>17.760557937398467</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.848470886212384</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>15.330500000000001</v>
+        <v>13.503000000000002</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>16.309280275029725</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.390700448399931</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>14.996999999999998</v>
+        <v>13.535</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>15.932359546356251</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>14.427051834538505</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -16631,152 +16641,135 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" ref="D24:D29" si="4">16*volume_A/J14</f>
-        <v>83.337530428943168</v>
+        <f>0.16*volume_A/J14</f>
+        <v>0.94995694191943336</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F29" si="5">-16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
-        <v>77.361437361969095</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
+        <v>0.88017380557733105</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>7.1709505143898206E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.3459262480994297E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="4"/>
-        <v>113.1417500807233</v>
+        <f>0.16*volume_A/J15</f>
+        <v>1.2929889298892985</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="5"/>
-        <v>107.20638848444307</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N5))))</f>
+        <v>1.2236974034423818</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>5.2459517305022463E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <v>5.3590193113911062E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
-        <v>131.54895985159666</v>
+        <f>0.16*volume_A/J16</f>
+        <v>1.4830822855720152</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="5"/>
-        <v>125.62908622038421</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N6))))</f>
+        <v>1.4139603108566092</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="6"/>
-        <v>4.500129562324777E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.6606972106571984E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
-        <v>179.35685896663855</v>
+        <f>0.16*volume_A/J17</f>
+        <v>2.0153601515715387</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="5"/>
-        <v>173.46184321357148</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N7))))</f>
+        <v>1.9465365943289623</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="6"/>
-        <v>3.2867523366717631E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.4149507813235815E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
-        <v>194.27937771109876</v>
+        <f>0.16*volume_A/J18</f>
+        <v>2.2057320595423233</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="5"/>
-        <v>188.38953581482357</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N8))))</f>
+        <v>2.1369791173766264</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0316351460800011E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.1170124162752017E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="4"/>
-        <v>198.59971994398879</v>
+        <f>0.16*volume_A/J19</f>
+        <v>2.2005171776874763</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="5"/>
-        <v>192.71122633220398</v>
+        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N9))))</f>
+        <v>2.1317624692501598</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9650059997292776E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.1244795148370939E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -16788,6 +16781,23 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16802,31 +16812,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16857,16 +16867,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16898,13 +16908,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
-        <v>0.14067946824224517</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.14411021814006889</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16936,13 +16946,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>0.10381585425898571</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.10610792192881746</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -16974,13 +16984,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>8.9172821270310176E-2</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.2353616532721006E-2</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17012,13 +17022,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>6.5411127523387499E-2</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.7967853042479931E-2</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17050,13 +17060,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>6.0275726243229931E-2</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.1980482204362801E-2</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17088,36 +17098,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>5.8803545051698679E-2</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.1923076923076942E-2</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17128,152 +17138,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_B1</f>
-        <v>22.857599999999994</v>
+        <v>20.083199999999998</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
-        <v>26.599620462046197</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>23.464703546708158</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>16.867999999999995</v>
+        <v>14.7872</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>18.82202455841551</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>16.542489146908476</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>14.488799999999996</v>
+        <v>12.870399999999998</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>15.907298704247276</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>14.179971665654724</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>10.628</v>
+        <v>9.4720000000000013</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>11.371845217711982</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.162739591032276</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>9.7935999999999979</v>
+        <v>8.6375999999999991</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>10.421780381225831</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2083371786319699</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>9.5544000000000011</v>
+        <v>8.6296000000000017</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>10.151334452831968</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>9.1992455924559273</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -17290,141 +17300,144 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" ref="D24:D29" si="4">16*volume_B1/J14</f>
-        <v>66.257874842503156</v>
+        <f>0.16*volume_B1/J14</f>
+        <v>0.75411089866156789</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F29" si="5">-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
-        <v>61.47959147044795</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+        <v>0.69836464663381892</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>7.2116459868556318E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.3923148606776651E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="4"/>
-        <v>89.78515532368985</v>
+        <f>0.16*volume_B1/J15</f>
+        <v>1.0241938974247997</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="5"/>
-        <v>85.03947087126231</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+        <v>0.96884072488940032</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>5.285600314794342E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <v>5.4045598860311156E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
-        <v>104.52873944011928</v>
+        <f>0.16*volume_B1/J16</f>
+        <v>1.1767279960218797</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="5"/>
-        <v>99.79563764783174</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+        <v>1.1215130351302505</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="6"/>
-        <v>4.5280387170448598E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.6922450284426306E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
-        <v>142.50056454648097</v>
+        <f>0.16*volume_B1/J17</f>
+        <v>1.5989189189189186</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="5"/>
-        <v>137.78746054782277</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+        <v>1.5439439769154004</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="6"/>
-        <v>3.3074282994302616E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.4382570218562752E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
-        <v>154.64139846430325</v>
+        <f>0.16*volume_B1/J18</f>
+        <v>1.7533759377604892</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="5"/>
-        <v>149.93255004560066</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+        <v>1.6984589739520835</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="6"/>
-        <v>3.0450115334345978E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.1320701183197922E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="4"/>
-        <v>158.51293644812858</v>
+        <f>0.16*volume_B1/J19</f>
+        <v>1.755001390562714</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="5"/>
-        <v>153.80530372827192</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+        <v>1.7000849808523586</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="6"/>
-        <v>2.9698728856727582E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.1291376750845361E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17438,15 +17451,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17460,31 +17470,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17515,16 +17525,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17556,13 +17566,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
-        <v>0.33019520000000002</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.34595692307692311</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17594,13 +17604,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>0.22419519999999998</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.22980307692307692</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -17632,13 +17642,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>0.31519520000000001</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32038</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17670,13 +17680,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>0.30979039999999997</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31133692307692307</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17708,13 +17718,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>0.3022784</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30449846153846155</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17746,36 +17756,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>0.296288</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.29796923076923076</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17786,152 +17796,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_B2</f>
-        <v>41.2744</v>
+        <v>44.974400000000003</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
-        <v>61.621535109930534</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>68.763666472215434</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>28.024399999999996</v>
+        <v>29.874399999999998</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>36.123004137123147</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>38.788002269149942</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>39.3994</v>
+        <v>41.6494</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>57.5337672866779</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>61.283364232953708</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>38.723799999999997</v>
+        <v>40.473799999999997</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>56.104406545489944</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58.771555142516931</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>37.784799999999997</v>
+        <v>39.584800000000001</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>54.154551041561561</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56.915474389261988</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>37.036000000000001</v>
+        <v>38.735999999999997</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>52.629484789231959</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>55.177068723702661</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -17948,141 +17958,144 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" ref="D24:D29" si="4">16*volume_B2/J14</f>
-        <v>38.764948733355297</v>
+        <f>0.16*volume_B2/J14</f>
+        <v>0.35575794229606172</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F29" si="5">-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
-        <v>31.938601844284602</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+        <v>0.289877820683003</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>0.17609585752391221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1851824338421468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="4"/>
-        <v>57.093104580294323</v>
+        <f>0.16*volume_B2/J15</f>
+        <v>0.53557560988672581</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="5"/>
-        <v>50.422617000164529</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+        <v>0.47136214490787959</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>0.11683525758786836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <v>0.11989617113525272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
-        <v>40.609755478509825</v>
+        <f>0.16*volume_B2/J16</f>
+        <v>0.38415919557064448</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="5"/>
-        <v>33.80685424628561</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+        <v>0.31866930155661588</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="6"/>
-        <v>0.16751889175555923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.17047592448424267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
-        <v>41.318259055154712</v>
+        <f>0.16*volume_B2/J17</f>
+        <v>0.39531746463144063</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="5"/>
-        <v>34.523684867718138</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+        <v>0.32996217185704546</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="6"/>
-        <v>0.16444483244966024</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.16532356554326968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
-        <v>42.345069975228135</v>
+        <f>0.16*volume_B2/J18</f>
+        <v>0.40419554980699662</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="5"/>
-        <v>35.561965634304833</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+        <v>0.3389409185679565</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="6"/>
-        <v>0.16018640056307423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.16144322041694723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="4"/>
-        <v>43.201209633869745</v>
+        <f>0.16*volume_B2/J19</f>
+        <v>0.41305245766212312</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="5"/>
-        <v>36.427166850034901</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+        <v>0.34789304983809716</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="6"/>
-        <v>0.15680215533881706</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.15775092634196683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18096,15 +18109,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18118,31 +18128,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18176,16 +18186,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18220,13 +18230,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
-        <v>0.19545312194167153</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.17966651439013248</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18261,13 +18271,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>0.28621452339009584</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.27222476016445868</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -18302,13 +18312,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>0.44192875318066155</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.44058108725445411</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -18343,13 +18353,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>0.51905891563906836</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.54728688899040667</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -18384,13 +18394,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>0.51457545507927183</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.54038510735495671</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -18425,36 +18435,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>0.50827206889802301</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.53636866148926465</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18465,156 +18475,156 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_A</f>
-        <v>49.928499999999993</v>
+        <v>39.328999999999994</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
-        <v>62.057912797444537</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>47.942697317495579</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>73.113499999999974</v>
+        <v>59.589999999999996</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>102.43063552826776</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>81.879674847781061</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>112.89069999999998</v>
+        <v>96.44319999999999</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>202.28725390065742</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>172.39889071084659</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>132.59360000000001</v>
+        <v>119.80110000000001</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>275.69613890688646</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>264.62918145408281</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>131.44829999999999</v>
+        <v>118.29030000000002</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>270.79038622051144</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+        <v>257.36829222232063</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="83"/>
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>129.83809999999997</v>
+        <v>117.41110000000002</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>264.04459008262739</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>253.24237222001631</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -18631,141 +18641,145 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_A/J14</f>
-        <v>0.59653304225041814</v>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_A/J14</f>
+        <v>0.75730377075440514</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
-        <v>0.5361245453416783</v>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
+        <v>0.68702864507662731</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>0.10126596957789474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2796481929268204E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_A/J15</f>
-        <v>0.40736662859800182</v>
+        <f t="shared" si="4"/>
+        <v>0.49981540526934043</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N5))))</f>
-        <v>0.34579966225272685</v>
+        <f t="shared" si="5"/>
+        <v>0.42818743033993578</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
-        <v>0.15113404491959645</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
+        <v>0.14330885797888879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_A/J16</f>
-        <v>0.26383041295695747</v>
+        <f t="shared" si="4"/>
+        <v>0.30882426132687424</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N6))))</f>
-        <v>0.19989801782163105</v>
+        <f t="shared" si="5"/>
+        <v>0.23424388702888888</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
-        <v>0.24232382619875081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.24149778251730669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_A/J17</f>
-        <v>0.22462622630353193</v>
+        <f t="shared" si="4"/>
+        <v>0.24861207451350609</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N7))))</f>
-        <v>0.15927947087154459</v>
+        <f t="shared" si="5"/>
+        <v>0.17168795170003329</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
-        <v>0.29091329408564193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.30941426704234282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_A/J18</f>
-        <v>0.2265833791688443</v>
+        <f t="shared" si="4"/>
+        <v>0.25178734012848047</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N8))))</f>
-        <v>0.16132444519195757</v>
+        <f t="shared" si="5"/>
+        <v>0.17502961418318927</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
-        <v>0.28801289051416873</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.30485141113974895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_A/J19</f>
-        <v>0.22939337528814732</v>
+        <f t="shared" si="4"/>
+        <v>0.25367277880881783</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N9))))</f>
-        <v>0.16425664533854462</v>
+        <f t="shared" si="5"/>
+        <v>0.17701082739646354</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
-        <v>0.2839520969940072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.30220803261721307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18779,16 +18793,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18802,31 +18812,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18860,16 +18870,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18904,13 +18914,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
-        <v>0.19619399310684391</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.18063145809414469</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18945,13 +18955,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>0.28684884293451501</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.27305396096440876</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -18986,13 +18996,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>0.44221171836533729</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.44091963260619982</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19027,13 +19037,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>0.51912653865091085</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.54718484500574061</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -19068,13 +19078,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>0.51449926144756286</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5401308840413318</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -19109,36 +19119,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>0.50803348104382073</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.53591044776119412</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19149,152 +19159,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_B1</f>
-        <v>31.877599999999997</v>
+        <v>25.172800000000002</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
-        <v>39.658325176260156</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>30.722194851962396</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>46.607199999999999</v>
+        <v>38.052799999999998</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>65.35388681381653</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>52.346113681949554</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>71.850560000000002</v>
+        <v>61.446559999999998</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>128.81331925696551</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>109.9064885544779</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>84.347679999999997</v>
+        <v>76.255679999999998</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>175.40514663330103</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168.40355089477237</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>83.59584000000001</v>
+        <v>75.272639999999996</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>172.18478441299246</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>163.68274665082163</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>82.545279999999991</v>
+        <v>74.684480000000008</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>167.78637736392892</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>160.92687206535027</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -19311,141 +19321,144 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" ref="D24:D29" si="4">16*volume_B1/J14</f>
-        <v>47.509724696965897</v>
+        <f>0.16*volume_B1/J14</f>
+        <v>0.60163986525138236</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F29" si="5">-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
-        <v>42.679655749829983</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+        <v>0.54549931513838479</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>0.10166484815359023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3312550174082035E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="4"/>
-        <v>32.494893492850885</v>
+        <f>0.16*volume_B1/J15</f>
+        <v>0.39799857040743386</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="5"/>
-        <v>27.572237994759259</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+        <v>0.34077784292488106</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>0.15149012564619255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <v>0.14377118848435952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
-        <v>21.078416090285167</v>
+        <f>0.16*volume_B1/J16</f>
+        <v>0.246473683799386</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="5"/>
-        <v>15.966955815921242</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+        <v>0.18689970706314707</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="6"/>
-        <v>0.24249736092455951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.2417052231212172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
-        <v>17.955396046459132</v>
+        <f>0.16*volume_B1/J17</f>
+        <v>0.19860763158888622</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="5"/>
-        <v>12.731145764277096</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+        <v>0.13716903341088477</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="6"/>
-        <v>0.29095711777475808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.30934661315119105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
-        <v>18.116882371180189</v>
+        <f>0.16*volume_B1/J18</f>
+        <v>0.20120139269726689</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="5"/>
-        <v>12.899878125082752</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+        <v>0.1398985800611833</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="6"/>
-        <v>0.28796368708539477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.30468383848774583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="4"/>
-        <v>18.347457298588122</v>
+        <f>0.16*volume_B1/J19</f>
+        <v>0.20278590679080843</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="5"/>
-        <v>13.140471349610616</v>
+        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+        <v>0.14156341881091922</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="6"/>
-        <v>0.28379877735854958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.30190701587090873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19459,15 +19472,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19481,31 +19491,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" customWidth="1"/>
+    <col min="7" max="8" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="N1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -19539,16 +19549,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -19583,13 +19593,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="73">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
-        <v>0.18789440000000002</v>
-      </c>
-      <c r="O4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.19182153846153846</v>
+      </c>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -19624,13 +19634,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>0.2620672</v>
-      </c>
-      <c r="O5" s="78"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.26621846153846151</v>
+      </c>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -19665,13 +19675,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>0.38620160000000003</v>
-      </c>
-      <c r="O6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.38865538461538468</v>
+      </c>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19706,13 +19716,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>0.43814240000000004</v>
-      </c>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43475230769230772</v>
+      </c>
+      <c r="O7" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -19747,13 +19757,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>0.43719200000000003</v>
-      </c>
-      <c r="O8" s="78"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43422307692307704</v>
+      </c>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -19788,36 +19798,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>0.42554720000000001</v>
-      </c>
-      <c r="O9" s="78"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.42225692307692314</v>
+      </c>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="71"/>
+      <c r="I11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="79"/>
+      <c r="M11" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="71"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19828,152 +19838,152 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="O12" s="76"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="71"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="71"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" ref="J14:J19" si="2">N4*surface_B2</f>
-        <v>23.486800000000002</v>
+        <v>24.936799999999998</v>
       </c>
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="81">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
-        <v>28.920869404176013</v>
-      </c>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+        <v>30.855561224101301</v>
+      </c>
+      <c r="O14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>32.758400000000002</v>
+        <v>34.608399999999996</v>
       </c>
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="81">
         <f t="shared" si="3"/>
-        <v>44.392118089885692</v>
-      </c>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+        <v>47.164446345380512</v>
+      </c>
+      <c r="O15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="71"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>48.275200000000005</v>
+        <v>50.525200000000005</v>
       </c>
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="81">
         <f t="shared" si="3"/>
-        <v>78.649928054553428</v>
-      </c>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+        <v>82.64602112870999</v>
+      </c>
+      <c r="O16" s="82"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="71"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>54.767800000000008</v>
+        <v>56.517800000000001</v>
       </c>
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="81">
         <f t="shared" si="3"/>
-        <v>97.476300044708864</v>
-      </c>
-      <c r="O17" s="75"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99.987670483464015</v>
+      </c>
+      <c r="O17" s="82"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>54.649000000000001</v>
+        <v>56.449000000000012</v>
       </c>
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="81">
         <f t="shared" si="3"/>
-        <v>97.100609799434267</v>
-      </c>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>99.772538782613466</v>
+      </c>
+      <c r="O18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>53.193400000000004</v>
+        <v>54.893400000000007</v>
       </c>
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="81">
         <f t="shared" si="3"/>
-        <v>92.598382321402227</v>
-      </c>
-      <c r="O19" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+        <v>95.013514125256648</v>
+      </c>
+      <c r="O19" s="82"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="80"/>
+      <c r="I21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -19990,141 +20000,144 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" ref="D24:D29" si="4">16*volume_B2/J14</f>
-        <v>68.123371425651854</v>
+        <f>0.16*volume_B2/J14</f>
+        <v>0.64162202046774253</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" ref="F24:F29" si="5">-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
-        <v>61.501531638346115</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+        <v>0.57790087633459497</v>
       </c>
       <c r="I24" s="12">
         <v>125</v>
       </c>
       <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
-        <v>9.7203641697807763E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9312589188717118E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="4"/>
-        <v>48.842434306925853</v>
+        <f>0.16*volume_B2/J15</f>
+        <v>0.46231550721790093</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="5"/>
-        <v>42.11876950588907</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+        <v>0.39760729467648537</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
-        <v>0.1376603131364271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <v>0.13996548143239537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="4"/>
-        <v>33.143311679703032</v>
+        <f>0.16*volume_B2/J16</f>
+        <v>0.31667365987665558</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="5"/>
-        <v>26.224739189627527</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+        <v>0.25010832886185413</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="6"/>
-        <v>0.20874716917055816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.2102016664118154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="4"/>
-        <v>29.214246327221463</v>
+        <f>0.16*volume_B2/J17</f>
+        <v>0.28309665273595219</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="5"/>
-        <v>22.202685324756576</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+        <v>0.21573849376765239</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="6"/>
-        <v>0.24000485666924784</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.23793343480866094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="4"/>
-        <v>29.277754396237807</v>
+        <f>0.16*volume_B2/J18</f>
+        <v>0.28344169072968511</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="5"/>
-        <v>22.267966687562339</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+        <v>0.21609297620183074</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="6"/>
-        <v>0.23942368030712854</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.2376104741489283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="4"/>
-        <v>30.078919565209215</v>
+        <f>0.16*volume_B2/J19</f>
+        <v>0.29147402055620525</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="5"/>
-        <v>23.090632718232548</v>
+        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+        <v>0.22433665233228126</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="6"/>
-        <v>0.23233171097873043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.23033740055394689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20138,15 +20151,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20160,59 +20170,59 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="90" t="s">
+      <c r="D1" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="L1" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="L1" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -20226,43 +20236,43 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="59">
         <v>58</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G5" s="14">
         <v>60</v>
       </c>
@@ -20273,23 +20283,23 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="92">
         <v>125</v>
       </c>
-      <c r="K5" s="98"/>
+      <c r="K5" s="92"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
       <c r="M5" s="47">
-        <f>30*LOG10(J5/80)</f>
-        <v>5.814600780483385</v>
+        <f>MAX(30*LOG10(J5/f0f), 0)</f>
+        <v>0</v>
       </c>
       <c r="N5" s="48">
         <f>L5-M5</f>
-        <v>61.685399219516611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G6" s="14">
         <v>65</v>
       </c>
@@ -20300,23 +20310,23 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="92">
         <v>250</v>
       </c>
-      <c r="K6" s="98"/>
+      <c r="K6" s="92"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" ref="M6:M9" si="1">30*LOG10(J6/80)</f>
-        <v>14.845500650402821</v>
+        <f>MAX(30*LOG10(J6/f0f), 0)</f>
+        <v>5.814600780483385</v>
       </c>
       <c r="N6" s="48">
-        <f t="shared" ref="N6:N9" si="2">L6-M6</f>
-        <v>54.154499349597181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N6:N9" si="1">L6-M6</f>
+        <v>63.185399219516611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G7" s="14">
         <v>66</v>
       </c>
@@ -20327,23 +20337,23 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="92">
         <v>500</v>
       </c>
-      <c r="K7" s="98"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
       <c r="M7" s="47">
+        <f>MAX(30*LOG10(J7/f0f), 0)</f>
+        <v>14.845500650402821</v>
+      </c>
+      <c r="N7" s="48">
         <f t="shared" si="1"/>
-        <v>23.876400520322257</v>
-      </c>
-      <c r="N7" s="48">
-        <f t="shared" si="2"/>
-        <v>46.623599479677743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55.654499349597181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="G8" s="14">
         <v>67</v>
       </c>
@@ -20354,32 +20364,32 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="92">
         <v>1000</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="92"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
       <c r="M8" s="47">
+        <f>MAX(30*LOG10(J8/f0f), 0)</f>
+        <v>23.876400520322257</v>
+      </c>
+      <c r="N8" s="48">
         <f t="shared" si="1"/>
-        <v>32.907300390241694</v>
-      </c>
-      <c r="N8" s="48">
-        <f t="shared" si="2"/>
-        <v>39.092699609758306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48.123599479677743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="53">
         <f>I11+19</f>
         <v>72</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="53">
         <v>2</v>
@@ -20394,44 +20404,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="92">
         <v>2000</v>
       </c>
-      <c r="K9" s="98"/>
+      <c r="K9" s="92"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
       <c r="M9" s="47">
+        <f>MAX(30*LOG10(J9/f0f), 0)</f>
+        <v>32.907300390241694</v>
+      </c>
+      <c r="N9" s="48">
         <f t="shared" si="1"/>
-        <v>41.938200260161132</v>
-      </c>
-      <c r="N9" s="48">
-        <f t="shared" si="2"/>
-        <v>30.061799739838868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39.092699609758306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="53">
         <f>78-N11</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="54">
-        <f>IF(B9-B10 +D9&gt; 50, "ERROR", B9-B10 +D9)</f>
-        <v>47</v>
+      <c r="B11" s="100">
+        <f>IF(B9-B10 +D9&gt; 58, "ERROR", B9-B10 +D9)</f>
+        <v>55</v>
       </c>
       <c r="D11" s="33"/>
       <c r="I11" s="41">
@@ -20440,58 +20450,65 @@
       </c>
       <c r="N11" s="41">
         <f>N19</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D12" s="33"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="F13" s="91" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="F13" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="91" t="s">
+      <c r="L13" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="92" t="s">
+      <c r="M13" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="92" t="s">
+      <c r="O13" s="86" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="65">
+        <f>160*SQRT(40/40)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -20510,7 +20527,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="22"/>
@@ -20523,7 +20540,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -20550,22 +20567,22 @@
         <v>5</v>
       </c>
       <c r="L17" s="30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M17" s="49">
         <f>N5</f>
-        <v>61.685399219516611</v>
+        <v>67.5</v>
       </c>
       <c r="N17" s="34">
         <f>C17-L17</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O17" s="14">
         <f>IF(M17&gt;N17, M17-N17,0)</f>
-        <v>8.6853992195166114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -20580,34 +20597,34 @@
         <v>12</v>
       </c>
       <c r="G18" s="36">
-        <f t="shared" ref="G18:G21" si="3">I6</f>
+        <f t="shared" ref="G18:G21" si="2">I6</f>
         <v>59</v>
       </c>
       <c r="H18" s="34">
-        <f t="shared" ref="H18:H21" si="4">C18-F18</f>
+        <f t="shared" ref="H18:H21" si="3">C18-F18</f>
         <v>55</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" ref="I18:I21" si="5">IF(G18&gt;H18, G18-H18,0)</f>
+        <f t="shared" ref="I18:I21" si="4">IF(G18&gt;H18, G18-H18,0)</f>
         <v>4</v>
       </c>
       <c r="L18" s="30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M18" s="49">
-        <f t="shared" ref="M18:M21" si="6">N6</f>
-        <v>54.154499349597181</v>
+        <f t="shared" ref="M18:M21" si="5">N6</f>
+        <v>63.185399219516611</v>
       </c>
       <c r="N18" s="34">
-        <f t="shared" ref="N18:N21" si="7">C18-L18</f>
-        <v>53</v>
+        <f t="shared" ref="N18:N21" si="6">C18-L18</f>
+        <v>61</v>
       </c>
       <c r="O18" s="14">
-        <f t="shared" ref="O18:O21" si="8">IF(M18&gt;N18, M18-N18,0)</f>
-        <v>1.1544993495971809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O18:O21" si="7">IF(M18&gt;N18, M18-N18,0)</f>
+        <v>2.1853992195166114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -20622,34 +20639,34 @@
         <v>12</v>
       </c>
       <c r="G19" s="36">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H19" s="37">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H19" s="37">
+        <v>53</v>
+      </c>
+      <c r="I19" s="14">
         <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
+        <v>6</v>
+      </c>
+      <c r="M19" s="49">
         <f t="shared" si="5"/>
+        <v>55.654499349597181</v>
+      </c>
+      <c r="N19" s="37">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="30">
-        <v>14</v>
-      </c>
-      <c r="M19" s="49">
-        <f t="shared" si="6"/>
-        <v>46.623599479677743</v>
-      </c>
-      <c r="N19" s="37">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="O19" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -20664,34 +20681,34 @@
         <v>12</v>
       </c>
       <c r="G20" s="36">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H20" s="34">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="H20" s="34">
+        <v>50</v>
+      </c>
+      <c r="I20" s="14">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
+        <v>6</v>
+      </c>
+      <c r="M20" s="49">
         <f t="shared" si="5"/>
+        <v>48.123599479677743</v>
+      </c>
+      <c r="N20" s="34">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="30">
-        <v>14</v>
-      </c>
-      <c r="M20" s="49">
-        <f t="shared" si="6"/>
-        <v>39.092699609758306</v>
-      </c>
-      <c r="N20" s="34">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="O20" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -20706,99 +20723,99 @@
         <v>12</v>
       </c>
       <c r="G21" s="36">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H21" s="34">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="H21" s="34">
+        <v>37</v>
+      </c>
+      <c r="I21" s="14">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="30">
+        <v>6</v>
+      </c>
+      <c r="M21" s="49">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="30">
-        <v>14</v>
-      </c>
-      <c r="M21" s="49">
+        <v>39.092699609758306</v>
+      </c>
+      <c r="N21" s="34">
         <f t="shared" si="6"/>
-        <v>30.061799739838868</v>
-      </c>
-      <c r="N21" s="34">
+        <v>43</v>
+      </c>
+      <c r="O21" s="14">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I22" s="38">
         <f>IF(SUM(I17:I21) &gt; 10, "ERROR", SUM(I17:I21) )</f>
         <v>10</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="86"/>
+      <c r="K22" s="85"/>
       <c r="O22" s="50">
         <f>IF(SUM(O17:O21) &gt; 10, "ERROR", SUM(O17:O21) )</f>
-        <v>9.8398985691137923</v>
-      </c>
-      <c r="P22" s="85" t="s">
+        <v>8.6853992195166114</v>
+      </c>
+      <c r="P22" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="86"/>
-    </row>
-    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="93" t="s">
+      <c r="Q22" s="85"/>
+    </row>
+    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+    </row>
+    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="D25" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="56">
         <v>50</v>
       </c>
       <c r="C27" s="25"/>
@@ -20806,121 +20823,121 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="88"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H29" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="99"/>
       <c r="L29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M29" s="26">
         <v>509</v>
       </c>
-      <c r="N29" s="65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="H30" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="66">
+        <v>91</v>
+      </c>
+      <c r="I30" s="65">
         <f>J40+M33</f>
         <v>63</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M30" s="26">
         <v>40</v>
       </c>
-      <c r="N30" s="65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="26">
         <v>509</v>
       </c>
       <c r="L31" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" s="26">
         <v>10</v>
       </c>
-      <c r="N31" s="65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N31" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L32" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M32" s="26">
         <f>160*SQRT(M31*((1/M29)+(1/M30)))</f>
         <v>83.08397531903104</v>
       </c>
-      <c r="N32" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L33" s="67" t="s">
-        <v>94</v>
+      <c r="N32" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L33" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="M33" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="E34" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="90"/>
-      <c r="H34" s="91" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="E34" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="H34" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="92" t="s">
+      <c r="I34" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="86" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -20931,17 +20948,17 @@
         <v>53</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="35"/>
       <c r="J36" s="30"/>
       <c r="K36" s="29"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="22"/>
@@ -20952,7 +20969,7 @@
       <c r="J37" s="30"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="8">
         <v>0</v>
       </c>
@@ -20963,11 +20980,11 @@
       <c r="C38" s="34">
         <v>36</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="61">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B38) -42.3</f>
         <v>53.772555906896315</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="61">
         <f>E38-10*LOG10(0.23*E38)</f>
         <v>42.849670749016262</v>
       </c>
@@ -20978,7 +20995,7 @@
         <f>F38</f>
         <v>42.849670749016262</v>
       </c>
-      <c r="J38" s="63">
+      <c r="J38" s="62">
         <f>C38+H38</f>
         <v>40</v>
       </c>
@@ -20987,7 +21004,7 @@
         <v>2.8496707490162621</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="8">
         <v>1</v>
       </c>
@@ -20998,31 +21015,31 @@
       <c r="C39" s="34">
         <v>45</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="61">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B39) -42.3</f>
         <v>59.79315582017594</v>
       </c>
-      <c r="F39" s="62">
-        <f t="shared" ref="F39:F42" si="9">E39-10*LOG10(0.23*E39)</f>
+      <c r="F39" s="61">
+        <f t="shared" ref="F39:F42" si="8">E39-10*LOG10(0.23*E39)</f>
         <v>48.409362703667817</v>
       </c>
       <c r="H39" s="30">
         <v>4</v>
       </c>
       <c r="I39" s="49">
-        <f t="shared" ref="I39:I42" si="10">F39</f>
+        <f t="shared" ref="I39:I42" si="9">F39</f>
         <v>48.409362703667817</v>
       </c>
-      <c r="J39" s="63">
-        <f t="shared" ref="J39:J42" si="11">C39+H39</f>
+      <c r="J39" s="62">
+        <f t="shared" ref="J39:J42" si="10">C39+H39</f>
         <v>49</v>
       </c>
       <c r="K39" s="14">
-        <f t="shared" ref="K39:K42" si="12">IF(I39&gt;J39, I39-J39,0)</f>
+        <f t="shared" ref="K39:K42" si="11">IF(I39&gt;J39, I39-J39,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -21033,36 +21050,36 @@
       <c r="C40" s="34">
         <v>52</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="61">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B40) -42.3</f>
         <v>65.813755733455565</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="61">
+        <f t="shared" si="8"/>
+        <v>54.013310623344665</v>
+      </c>
+      <c r="H40" s="30">
+        <v>4</v>
+      </c>
+      <c r="I40" s="49">
         <f t="shared" si="9"/>
         <v>54.013310623344665</v>
       </c>
-      <c r="H40" s="30">
-        <v>4</v>
-      </c>
-      <c r="I40" s="49">
+      <c r="J40" s="63">
         <f t="shared" si="10"/>
-        <v>54.013310623344665</v>
-      </c>
-      <c r="J40" s="64">
+        <v>56</v>
+      </c>
+      <c r="K40" s="14">
         <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L40" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L40" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -21073,31 +21090,31 @@
       <c r="C41" s="34">
         <v>55</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="61">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B41) -42.3</f>
         <v>71.834355646735176</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="61">
+        <f t="shared" si="8"/>
+        <v>59.653755281561935</v>
+      </c>
+      <c r="H41" s="30">
+        <v>4</v>
+      </c>
+      <c r="I41" s="49">
         <f t="shared" si="9"/>
         <v>59.653755281561935</v>
       </c>
-      <c r="H41" s="30">
-        <v>4</v>
-      </c>
-      <c r="I41" s="49">
+      <c r="J41" s="62">
         <f t="shared" si="10"/>
-        <v>59.653755281561935</v>
-      </c>
-      <c r="J41" s="63">
+        <v>59</v>
+      </c>
+      <c r="K41" s="14">
         <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="12"/>
         <v>0.65375528156193496</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="8">
         <v>4</v>
       </c>
@@ -21108,47 +21125,71 @@
       <c r="C42" s="34">
         <v>56</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="61">
         <f xml:space="preserve"> 20*LOG10(mass_bare*B42) -42.3</f>
         <v>77.854955560014801</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="61">
+        <f t="shared" si="8"/>
+        <v>65.324814588424516</v>
+      </c>
+      <c r="H42" s="30">
+        <v>4</v>
+      </c>
+      <c r="I42" s="49">
         <f t="shared" si="9"/>
         <v>65.324814588424516</v>
       </c>
-      <c r="H42" s="30">
-        <v>4</v>
-      </c>
-      <c r="I42" s="49">
+      <c r="J42" s="62">
         <f t="shared" si="10"/>
-        <v>65.324814588424516</v>
-      </c>
-      <c r="J42" s="63">
+        <v>60</v>
+      </c>
+      <c r="K42" s="14">
         <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="12"/>
         <v>5.3248145884245162</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
+    <row r="43" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="34"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
       <c r="K43" s="38">
         <f>IF(SUM(K38:K42) &gt; 10, "ERROR", SUM(K38:K42) )</f>
         <v>8.8282406190027132</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="86"/>
+      <c r="M43" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21162,30 +21203,6 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21205,7 +21222,7 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E44FA6-AFC0-46B5-836A-CADE5B318A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA37CBB-84CD-4CA4-A789-ED830412899D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="20715" windowHeight="13274" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="CASE  C_B1" sheetId="7" r:id="rId6"/>
     <sheet name="CASE C_B2" sheetId="8" r:id="rId7"/>
     <sheet name="D - FLOOR" sheetId="9" r:id="rId8"/>
-    <sheet name="conclusion" sheetId="10" r:id="rId9"/>
+    <sheet name="Es 2" sheetId="11" r:id="rId9"/>
+    <sheet name="conclusion" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="area_S1">DATA!$B$5</definedName>
@@ -50,6 +51,15 @@
     <definedName name="area_S7_B1">DATA!$C$12</definedName>
     <definedName name="area_S7_B2">DATA!$D$12</definedName>
     <definedName name="f0f">'D - FLOOR'!$S$13</definedName>
+    <definedName name="lenx1">DATA!$B$17</definedName>
+    <definedName name="lenx2">DATA!$C$17</definedName>
+    <definedName name="lenx3">DATA!$D$17</definedName>
+    <definedName name="leny1">DATA!$B$16</definedName>
+    <definedName name="leny2">DATA!$C$16</definedName>
+    <definedName name="leny3">DATA!$D$16</definedName>
+    <definedName name="lenz1">DATA!$B$18</definedName>
+    <definedName name="lenz2">DATA!$C$18</definedName>
+    <definedName name="lenz3">DATA!$D$18</definedName>
     <definedName name="mass_bare">'D - FLOOR'!$B$31</definedName>
     <definedName name="surface_A">DATA!$B$22</definedName>
     <definedName name="surface_B1">DATA!$C$22</definedName>
@@ -77,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="111">
   <si>
     <t>classrooms</t>
   </si>
@@ -388,12 +398,78 @@
   <si>
     <t>Ln,r,w [dB]</t>
   </si>
+  <si>
+    <t>nx</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>nz</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>axial mode frequencies [Hz]</t>
+  </si>
+  <si>
+    <t>characteristic dimension  L=(V)^1/3 [m]</t>
+  </si>
+  <si>
+    <r>
+      <t>small room  f =λ&gt;L -&gt; f= c/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Hz]</t>
+    </r>
+  </si>
+  <si>
+    <t>tangential mode frequencies [Hz]</t>
+  </si>
+  <si>
+    <t>oblique  mode frequencies [Hz]</t>
+  </si>
+  <si>
+    <t>T60 Eyring (from CASE_A, CASE_B1 AND CASE_B2) at 500 Hz</t>
+  </si>
+  <si>
+    <t>T60 Sabine (from CASE A, CASE_B1 and CASE_B2) at 500 Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frequency of Schroder (Sabine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frequency of Schroder (Eyring)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +610,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF264653"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF4A261"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,8 +727,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9C46A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE76F51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A9D8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -881,11 +1036,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1021,6 +1185,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,7 +1200,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1057,16 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1078,10 +1245,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,45 +1269,92 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+      <color rgb="FFF4A261"/>
+      <color rgb="FFE9C46A"/>
+      <color rgb="FF2A9D8F"/>
+      <color rgb="FFE76F51"/>
+      <color rgb="FF264653"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1143,7 +1369,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1205,7 +1431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1371,7 +1597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1433,7 +1659,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1481,7 +1707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1495,7 +1721,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1557,7 +1783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1723,7 +1949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1785,7 +2011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1833,7 +2059,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1847,7 +2073,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1909,7 +2135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2101,7 +2327,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2163,7 +2389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2211,7 +2437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2225,7 +2451,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2287,7 +2513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2453,7 +2679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2515,7 +2741,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2563,7 +2789,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2577,7 +2803,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2639,7 +2865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2805,7 +3031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2867,7 +3093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2915,7 +3141,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2929,7 +3155,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2991,7 +3217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3157,7 +3383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -3219,7 +3445,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -3267,7 +3493,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15828,29 +16054,29 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" s="67" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15861,23 +16087,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="68" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -15894,7 +16120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -15911,7 +16137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -15928,7 +16154,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -15942,7 +16168,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -15959,7 +16185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -15976,7 +16202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -15993,7 +16219,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -16010,17 +16236,17 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="67" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="68"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -16031,7 +16257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -16045,7 +16271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -16059,7 +16285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -16073,7 +16299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -16085,7 +16311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -16102,7 +16328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -16113,7 +16339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -16146,6 +16372,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E55300-21DB-4971-9149-9E86522267E5}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE2AFFE-6024-43B4-BA04-47AFEDDDFED6}">
   <sheetPr>
@@ -16157,27 +16401,27 @@
       <selection activeCell="D24" sqref="D24:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16208,16 +16452,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16249,13 +16493,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16287,13 +16531,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -16325,13 +16569,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -16363,13 +16607,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -16401,13 +16645,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -16439,36 +16683,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16479,23 +16723,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16506,17 +16750,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16527,17 +16771,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16548,17 +16792,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16569,13 +16813,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -16586,13 +16830,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -16604,27 +16848,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -16641,20 +16885,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_A/J14</f>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_A/J14</f>
         <v>0.94995694191943336</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
         <v>0.88017380557733105</v>
       </c>
       <c r="I24" s="12">
@@ -16665,111 +16909,128 @@
         <v>7.3459262480994297E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_A/J15</f>
+        <f t="shared" si="4"/>
         <v>1.2929889298892985</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N5))))</f>
+        <f t="shared" si="5"/>
         <v>1.2236974034423818</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>5.3590193113911062E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_A/J16</f>
+        <f t="shared" si="4"/>
         <v>1.4830822855720152</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N6))))</f>
+        <f t="shared" si="5"/>
         <v>1.4139603108566092</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6606972106571984E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_A/J17</f>
+        <f t="shared" si="4"/>
         <v>2.0153601515715387</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N7))))</f>
+        <f t="shared" si="5"/>
         <v>1.9465365943289623</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4149507813235815E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_A/J18</f>
+        <f t="shared" si="4"/>
         <v>2.2057320595423233</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N8))))</f>
+        <f t="shared" si="5"/>
         <v>2.1369791173766264</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1170124162752017E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_A/J19</f>
+        <f t="shared" si="4"/>
         <v>2.2005171776874763</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_A/(surface_A*LN(ABS(1-N9))))</f>
+        <f t="shared" si="5"/>
         <v>2.1317624692501598</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1244795148370939E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -16781,23 +17042,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16812,31 +17056,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16867,16 +17111,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16908,13 +17152,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16946,13 +17190,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -16984,13 +17228,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17022,13 +17266,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17060,13 +17304,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17098,36 +17342,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17138,23 +17382,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17165,17 +17409,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17186,17 +17430,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17207,17 +17451,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17228,13 +17472,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -17245,13 +17489,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -17263,27 +17507,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -17300,20 +17544,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_B1/J14</f>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_B1/J14</f>
         <v>0.75411089866156789</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
         <v>0.69836464663381892</v>
       </c>
       <c r="I24" s="12">
@@ -17324,120 +17568,117 @@
         <v>7.3923148606776651E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_B1/J15</f>
+        <f t="shared" si="4"/>
         <v>1.0241938974247997</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+        <f t="shared" si="5"/>
         <v>0.96884072488940032</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>5.4045598860311156E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_B1/J16</f>
+        <f t="shared" si="4"/>
         <v>1.1767279960218797</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+        <f t="shared" si="5"/>
         <v>1.1215130351302505</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6922450284426306E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_B1/J17</f>
+        <f t="shared" si="4"/>
         <v>1.5989189189189186</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+        <f t="shared" si="5"/>
         <v>1.5439439769154004</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4382570218562752E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_B1/J18</f>
+        <f t="shared" si="4"/>
         <v>1.7533759377604892</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+        <f t="shared" si="5"/>
         <v>1.6984589739520835</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1320701183197922E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_B1/J19</f>
+        <f t="shared" si="4"/>
         <v>1.755001390562714</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+        <f t="shared" si="5"/>
         <v>1.7000849808523586</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1291376750845361E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17451,12 +17692,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17470,31 +17714,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17525,16 +17769,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17566,13 +17810,13 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.34595692307692311</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17604,13 +17848,13 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>0.22980307692307692</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -17642,13 +17886,13 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>0.32038</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -17680,13 +17924,13 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>0.31133692307692307</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -17718,13 +17962,13 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>0.30449846153846155</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -17756,36 +18000,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>0.29796923076923076</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17796,23 +18040,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17823,17 +18067,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>68.763666472215434</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17844,17 +18088,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>38.788002269149942</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17865,17 +18109,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>61.283364232953708</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17886,13 +18130,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>58.771555142516931</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -17903,13 +18147,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>56.915474389261988</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -17921,27 +18165,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>55.177068723702661</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -17958,20 +18202,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_B2/J14</f>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_B2/J14</f>
         <v>0.35575794229606172</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
         <v>0.289877820683003</v>
       </c>
       <c r="I24" s="12">
@@ -17982,120 +18226,117 @@
         <v>0.1851824338421468</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_B2/J15</f>
+        <f t="shared" si="4"/>
         <v>0.53557560988672581</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+        <f t="shared" si="5"/>
         <v>0.47136214490787959</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.11989617113525272</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_B2/J16</f>
+        <f t="shared" si="4"/>
         <v>0.38415919557064448</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+        <f t="shared" si="5"/>
         <v>0.31866930155661588</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17047592448424267</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_B2/J17</f>
+        <f t="shared" si="4"/>
         <v>0.39531746463144063</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+        <f t="shared" si="5"/>
         <v>0.32996217185704546</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16532356554326968</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_B2/J18</f>
+        <f t="shared" si="4"/>
         <v>0.40419554980699662</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+        <f t="shared" si="5"/>
         <v>0.3389409185679565</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16144322041694723</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_B2/J19</f>
+        <f t="shared" si="4"/>
         <v>0.41305245766212312</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+        <f t="shared" si="5"/>
         <v>0.34789304983809716</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15775092634196683</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18109,12 +18350,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18128,31 +18372,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18186,16 +18430,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18230,13 +18474,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.17966651439013248</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18271,13 +18515,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>0.27222476016445868</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -18312,13 +18556,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>0.44058108725445411</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -18353,13 +18597,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>0.54728688899040667</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -18394,13 +18638,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>0.54038510735495671</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -18435,36 +18679,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>0.53636866148926465</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18475,23 +18719,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18502,17 +18746,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>47.942697317495579</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18523,17 +18767,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>81.879674847781061</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18544,17 +18788,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>172.39889071084659</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18565,13 +18809,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>264.62918145408281</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -18582,17 +18826,17 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>257.36829222232063</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="83" t="s">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -18604,27 +18848,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>253.24237222001631</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -18641,11 +18885,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
@@ -18665,7 +18909,7 @@
         <v>9.2796481929268204E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
@@ -18685,7 +18929,7 @@
         <v>0.14330885797888879</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
@@ -18705,7 +18949,7 @@
         <v>0.24149778251730669</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
@@ -18725,7 +18969,7 @@
         <v>0.30941426704234282</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
@@ -18745,7 +18989,7 @@
         <v>0.30485141113974895</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
@@ -18765,21 +19009,17 @@
         <v>0.30220803261721307</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18793,12 +19033,16 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18812,31 +19056,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18870,16 +19114,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18914,13 +19158,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18955,13 +19199,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -18996,13 +19240,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19037,13 +19281,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -19078,13 +19322,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -19119,36 +19363,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19159,23 +19403,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19186,17 +19430,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19207,17 +19451,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19228,17 +19472,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19249,13 +19493,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -19266,13 +19510,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -19284,27 +19528,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -19321,20 +19565,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_B1/J14</f>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_B1/J14</f>
         <v>0.60163986525138236</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
         <v>0.54549931513838479</v>
       </c>
       <c r="I24" s="12">
@@ -19345,120 +19589,117 @@
         <v>9.3312550174082035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_B1/J15</f>
+        <f t="shared" si="4"/>
         <v>0.39799857040743386</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+        <f t="shared" si="5"/>
         <v>0.34077784292488106</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.14377118848435952</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_B1/J16</f>
+        <f t="shared" si="4"/>
         <v>0.246473683799386</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+        <f t="shared" si="5"/>
         <v>0.18689970706314707</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2417052231212172</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_B1/J17</f>
+        <f t="shared" si="4"/>
         <v>0.19860763158888622</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+        <f t="shared" si="5"/>
         <v>0.13716903341088477</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30934661315119105</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_B1/J18</f>
+        <f t="shared" si="4"/>
         <v>0.20120139269726689</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+        <f t="shared" si="5"/>
         <v>0.1398985800611833</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30468383848774583</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_B1/J19</f>
+        <f t="shared" si="4"/>
         <v>0.20278590679080843</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+        <f t="shared" si="5"/>
         <v>0.14156341881091922</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30190701587090873</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19472,12 +19713,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19495,27 +19739,27 @@
       <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.1328125" customWidth="1"/>
-    <col min="7" max="8" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C1" s="72" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="N1" s="72" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -19549,16 +19793,16 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -19593,13 +19837,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="73">
+      <c r="N4" s="77">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="74"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -19634,13 +19878,13 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="77">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -19675,13 +19919,13 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -19716,13 +19960,13 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="77">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="74"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -19757,13 +20001,13 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="77">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="74"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -19798,36 +20042,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="77">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="I11" s="79" t="s">
+      <c r="B11" s="83"/>
+      <c r="I11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="M11" s="72" t="s">
+      <c r="J11" s="72"/>
+      <c r="M11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="71" t="s">
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19838,23 +20082,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="76"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="O12" s="80"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="83"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="83"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19865,17 +20109,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="74">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19886,17 +20130,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="74">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="71" t="s">
+      <c r="O15" s="75"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="83"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19907,17 +20151,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="74">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="83"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19928,13 +20172,13 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="74">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>2000</v>
       </c>
@@ -19945,13 +20189,13 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="74">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -19963,27 +20207,27 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="74">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C21" s="79" t="s">
+      <c r="O19" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="73"/>
+      <c r="I21" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -20000,20 +20244,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>125</v>
       </c>
       <c r="D24" s="16">
-        <f>0.16*volume_B2/J14</f>
+        <f t="shared" ref="D24:D29" si="4">0.16*volume_B2/J14</f>
         <v>0.64162202046774253</v>
       </c>
       <c r="F24" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+        <f t="shared" ref="F24:F29" si="5">-0.16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
         <v>0.57790087633459497</v>
       </c>
       <c r="I24" s="12">
@@ -20024,120 +20268,117 @@
         <v>9.9312589188717118E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>250</v>
       </c>
       <c r="D25" s="16">
-        <f>0.16*volume_B2/J15</f>
+        <f t="shared" si="4"/>
         <v>0.46231550721790093</v>
       </c>
       <c r="F25" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+        <f t="shared" si="5"/>
         <v>0.39760729467648537</v>
       </c>
       <c r="I25" s="12">
         <v>250</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" ref="J25:J29" si="4">(D25-F25)/D25</f>
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.13996548143239537</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>500</v>
       </c>
       <c r="D26" s="16">
-        <f>0.16*volume_B2/J16</f>
+        <f t="shared" si="4"/>
         <v>0.31667365987665558</v>
       </c>
       <c r="F26" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+        <f t="shared" si="5"/>
         <v>0.25010832886185413</v>
       </c>
       <c r="I26" s="12">
         <v>500</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2102016664118154</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>1000</v>
       </c>
       <c r="D27" s="16">
-        <f>0.16*volume_B2/J17</f>
+        <f t="shared" si="4"/>
         <v>0.28309665273595219</v>
       </c>
       <c r="F27" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+        <f t="shared" si="5"/>
         <v>0.21573849376765239</v>
       </c>
       <c r="I27" s="12">
         <v>1000</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23793343480866094</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>2000</v>
       </c>
       <c r="D28" s="16">
-        <f>0.16*volume_B2/J18</f>
+        <f t="shared" si="4"/>
         <v>0.28344169072968511</v>
       </c>
       <c r="F28" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+        <f t="shared" si="5"/>
         <v>0.21609297620183074</v>
       </c>
       <c r="I28" s="12">
         <v>2000</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2376104741489283</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>4000</v>
       </c>
       <c r="D29" s="16">
-        <f>0.16*volume_B2/J19</f>
+        <f t="shared" si="4"/>
         <v>0.29147402055620525</v>
       </c>
       <c r="F29" s="16">
-        <f>-0.16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+        <f t="shared" si="5"/>
         <v>0.22433665233228126</v>
       </c>
       <c r="I29" s="12">
         <v>4000</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23033740055394689</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20151,12 +20392,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20170,57 +20414,57 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.3984375" customWidth="1"/>
-    <col min="12" max="12" width="10.86328125" customWidth="1"/>
-    <col min="13" max="13" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="93" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="L1" s="93" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="L1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="89" t="s">
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="25"/>
@@ -20236,10 +20480,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="92"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20250,29 +20494,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="59">
         <v>58</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G5" s="14">
         <v>60</v>
       </c>
@@ -20283,10 +20527,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="98">
         <v>125</v>
       </c>
-      <c r="K5" s="92"/>
+      <c r="K5" s="98"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20299,7 +20543,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G6" s="14">
         <v>65</v>
       </c>
@@ -20310,10 +20554,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="98">
         <v>250</v>
       </c>
-      <c r="K6" s="92"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20326,7 +20570,7 @@
         <v>63.185399219516611</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" s="14">
         <v>66</v>
       </c>
@@ -20337,10 +20581,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="98">
         <v>500</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20353,7 +20597,7 @@
         <v>55.654499349597181</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G8" s="14">
         <v>67</v>
       </c>
@@ -20364,10 +20608,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="98">
         <v>1000</v>
       </c>
-      <c r="K8" s="92"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20380,7 +20624,7 @@
         <v>48.123599479677743</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>73</v>
       </c>
@@ -20404,10 +20648,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="98">
         <v>2000</v>
       </c>
-      <c r="K9" s="92"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20420,7 +20664,7 @@
         <v>39.092699609758306</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>74</v>
       </c>
@@ -20435,11 +20679,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="67">
         <f>IF(B9-B10 +D9&gt; 58, "ERROR", B9-B10 +D9)</f>
         <v>55</v>
       </c>
@@ -20453,38 +20697,38 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D12" s="33"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="95" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="F13" s="87" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="F13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="O13" s="92" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -20495,20 +20739,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -20527,7 +20771,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="22"/>
@@ -20540,7 +20784,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>0</v>
       </c>
@@ -20582,7 +20826,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -20624,7 +20868,7 @@
         <v>2.1853992195166114</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -20666,7 +20910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -20708,7 +20952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -20750,25 +20994,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="38">
         <f>IF(SUM(I17:I21) &gt; 10, "ERROR", SUM(I17:I21) )</f>
         <v>10</v>
       </c>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="85"/>
+      <c r="K22" s="86"/>
       <c r="O22" s="50">
         <f>IF(SUM(O17:O21) &gt; 10, "ERROR", SUM(O17:O21) )</f>
         <v>8.6853992195166114</v>
       </c>
-      <c r="P22" s="84" t="s">
+      <c r="P22" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="85"/>
-    </row>
-    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q22" s="86"/>
+    </row>
+    <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -20789,29 +21033,29 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="88" t="s">
+    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="89" t="s">
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>56</v>
       </c>
@@ -20823,21 +21067,21 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H29" s="71" t="s">
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H29" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="99"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="88"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
@@ -20848,7 +21092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H30" s="31" t="s">
         <v>91</v>
       </c>
@@ -20866,7 +21110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>81</v>
       </c>
@@ -20883,7 +21127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L32" s="28" t="s">
         <v>87</v>
       </c>
@@ -20895,7 +21139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L33" s="66" t="s">
         <v>92</v>
       </c>
@@ -20903,41 +21147,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="95" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="E34" s="93" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="E34" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="H34" s="87" t="s">
+      <c r="F34" s="90"/>
+      <c r="H34" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="86" t="s">
+      <c r="I34" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="86" t="s">
+      <c r="K34" s="92" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -20958,7 +21202,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="29"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="22"/>
@@ -20969,7 +21213,7 @@
       <c r="J37" s="30"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>0</v>
       </c>
@@ -21004,7 +21248,7 @@
         <v>2.8496707490162621</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>1</v>
       </c>
@@ -21039,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -21073,13 +21317,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="98" t="s">
+      <c r="L40" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -21114,7 +21358,7 @@
         <v>0.65375528156193496</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>4</v>
       </c>
@@ -21149,7 +21393,7 @@
         <v>5.3248145884245162</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="34"/>
@@ -21159,37 +21403,13 @@
         <f>IF(SUM(K38:K42) &gt; 10, "ERROR", SUM(K38:K42) )</f>
         <v>8.8282406190027132</v>
       </c>
-      <c r="L43" s="84" t="s">
+      <c r="L43" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="85"/>
+      <c r="M43" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21203,6 +21423,30 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21212,19 +21456,824 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E55300-21DB-4971-9149-9E86522267E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A74827-4912-454B-BCE8-0C2D4C26ADD4}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="H1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="102"/>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="114">
+        <f>(volume_A)^(1/3)</f>
+        <v>5.7098015415784111</v>
+      </c>
+      <c r="C3" s="114">
+        <f>(volume_B1)^(1/3)</f>
+        <v>4.5573884707963188</v>
+      </c>
+      <c r="D3" s="114">
+        <f>(volume_B2)^(1/3)</f>
+        <v>4.6415888336127793</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx1)^2 + (L3/leny1)^2 + (M3/lenz1)^2)</f>
+        <v>20.176470588235293</v>
+      </c>
+      <c r="I3" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx2)^2 + (L3/leny2)^2 + (M3/lenz2)^2)</f>
+        <v>25.22058823529412</v>
+      </c>
+      <c r="J3" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx3)^2 + (L3/leny3)^2 + (M3/lenz3)^2)</f>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="K3" s="109">
+        <v>1</v>
+      </c>
+      <c r="L3" s="109">
+        <v>0</v>
+      </c>
+      <c r="M3" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="116">
+        <f xml:space="preserve"> 343/B3</f>
+        <v>60.072140424197904</v>
+      </c>
+      <c r="C4" s="116">
+        <f t="shared" ref="C4:D4" si="0" xml:space="preserve"> 343/C3</f>
+        <v>75.26240130678768</v>
+      </c>
+      <c r="D4" s="116">
+        <f t="shared" si="0"/>
+        <v>73.897109868093608</v>
+      </c>
+      <c r="G4" s="108"/>
+      <c r="H4" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx1)^2 + (L4/leny1)^2 + (M4/lenz1)^2)</f>
+        <v>57.166666666666664</v>
+      </c>
+      <c r="I4" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx2)^2 + (L4/leny2)^2 + (M4/lenz2)^2)</f>
+        <v>71.458333333333343</v>
+      </c>
+      <c r="J4" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx3)^2 + (L4/leny3)^2 + (M4/lenz3)^2)</f>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="K4" s="109">
+        <v>0</v>
+      </c>
+      <c r="L4" s="109">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="116">
+        <f>'CASE A'!D26</f>
+        <v>1.4830822855720152</v>
+      </c>
+      <c r="C5" s="116">
+        <f>'CASE  B1'!D26</f>
+        <v>1.1767279960218797</v>
+      </c>
+      <c r="D5" s="116">
+        <f>'CASE B2'!D26</f>
+        <v>0.38415919557064448</v>
+      </c>
+      <c r="G5" s="108"/>
+      <c r="H5" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx1)^2 + (L5/leny1)^2 + (M5/lenz1)^2)</f>
+        <v>23.493150684931507</v>
+      </c>
+      <c r="I5" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx2)^2 + (L5/leny2)^2 + (M5/lenz2)^2)</f>
+        <v>29.568965517241381</v>
+      </c>
+      <c r="J5" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx3)^2 + (L5/leny3)^2 + (M5/lenz3)^2)</f>
+        <v>42.875</v>
+      </c>
+      <c r="K5" s="109">
+        <v>0</v>
+      </c>
+      <c r="L5" s="109">
+        <v>0</v>
+      </c>
+      <c r="M5" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="116">
+        <f>'CASE A'!F26</f>
+        <v>1.4139603108566092</v>
+      </c>
+      <c r="C6" s="116">
+        <f>'CASE  B1'!F26</f>
+        <v>1.1215130351302505</v>
+      </c>
+      <c r="D6" s="116">
+        <f>'CASE B2'!F26</f>
+        <v>0.31866930155661588</v>
+      </c>
+      <c r="G6" s="108"/>
+      <c r="H6" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx1)^2 + (L6/leny1)^2 + (M6/lenz1)^2)</f>
+        <v>40.352941176470587</v>
+      </c>
+      <c r="I6" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx2)^2 + (L6/leny2)^2 + (M6/lenz2)^2)</f>
+        <v>50.441176470588239</v>
+      </c>
+      <c r="J6" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx3)^2 + (L6/leny3)^2 + (M6/lenz3)^2)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="K6" s="109">
+        <v>2</v>
+      </c>
+      <c r="L6" s="109">
+        <v>0</v>
+      </c>
+      <c r="M6" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="116">
+        <f>2000*SQRT(B5/volume_A)</f>
+        <v>178.51762451692113</v>
+      </c>
+      <c r="C7" s="116">
+        <f>2000*SQRT(C5/volume_B1)</f>
+        <v>222.99440402564559</v>
+      </c>
+      <c r="D7" s="116">
+        <f>2000*SQRT(D5/volume_B2)</f>
+        <v>123.96115449133966</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx1)^2 + (L7/leny1)^2 + (M7/lenz1)^2)</f>
+        <v>114.33333333333333</v>
+      </c>
+      <c r="I7" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx2)^2 + (L7/leny2)^2 + (M7/lenz2)^2)</f>
+        <v>142.91666666666669</v>
+      </c>
+      <c r="J7" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx3)^2 + (L7/leny3)^2 + (M7/lenz3)^2)</f>
+        <v>68.600000000000009</v>
+      </c>
+      <c r="K7" s="109">
+        <v>0</v>
+      </c>
+      <c r="L7" s="109">
+        <v>2</v>
+      </c>
+      <c r="M7" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="116">
+        <f>2000*SQRT(B6/volume_A)</f>
+        <v>174.30790573817364</v>
+      </c>
+      <c r="C8" s="116">
+        <f>2000*SQRT(C6/volume_B1)</f>
+        <v>217.69982729518813</v>
+      </c>
+      <c r="D8" s="116">
+        <f>2000*SQRT(D6/volume_B2)</f>
+        <v>112.90160345302733</v>
+      </c>
+      <c r="G8" s="108"/>
+      <c r="H8" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx1)^2 + (L8/leny1)^2 + (M8/lenz1)^2)</f>
+        <v>46.986301369863014</v>
+      </c>
+      <c r="I8" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx2)^2 + (L8/leny2)^2 + (M8/lenz2)^2)</f>
+        <v>59.137931034482762</v>
+      </c>
+      <c r="J8" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx3)^2 + (L8/leny3)^2 + (M8/lenz3)^2)</f>
+        <v>85.75</v>
+      </c>
+      <c r="K8" s="109">
+        <v>0</v>
+      </c>
+      <c r="L8" s="109">
+        <v>0</v>
+      </c>
+      <c r="M8" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="108"/>
+      <c r="H9" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx1)^2 + (L9/leny1)^2 + (M9/lenz1)^2)</f>
+        <v>60.529411764705884</v>
+      </c>
+      <c r="I9" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx2)^2 + (L9/leny2)^2 + (M9/lenz2)^2)</f>
+        <v>75.661764705882348</v>
+      </c>
+      <c r="J9" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx3)^2 + (L9/leny3)^2 + (M9/lenz3)^2)</f>
+        <v>102.89999999999999</v>
+      </c>
+      <c r="K9" s="109">
+        <v>3</v>
+      </c>
+      <c r="L9" s="109">
+        <v>0</v>
+      </c>
+      <c r="M9" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="108"/>
+      <c r="H10" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx1)^2 + (L10/leny1)^2 + (M10/lenz1)^2)</f>
+        <v>171.5</v>
+      </c>
+      <c r="I10" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx2)^2 + (L10/leny2)^2 + (M10/lenz2)^2)</f>
+        <v>214.375</v>
+      </c>
+      <c r="J10" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx3)^2 + (L10/leny3)^2 + (M10/lenz3)^2)</f>
+        <v>102.89999999999999</v>
+      </c>
+      <c r="K10" s="109">
+        <v>0</v>
+      </c>
+      <c r="L10" s="109">
+        <v>3</v>
+      </c>
+      <c r="M10" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="108"/>
+      <c r="H11" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx1)^2 + (L11/leny1)^2 + (M11/lenz1)^2)</f>
+        <v>70.479452054794521</v>
+      </c>
+      <c r="I11" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx2)^2 + (L11/leny2)^2 + (M11/lenz2)^2)</f>
+        <v>88.706896551724142</v>
+      </c>
+      <c r="J11" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx3)^2 + (L11/leny3)^2 + (M11/lenz3)^2)</f>
+        <v>128.625</v>
+      </c>
+      <c r="K11" s="109">
+        <v>0</v>
+      </c>
+      <c r="L11" s="109">
+        <v>0</v>
+      </c>
+      <c r="M11" s="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx1)^2 + (L12/leny1)^2 + (M12/lenz1)^2)</f>
+        <v>60.622749386477857</v>
+      </c>
+      <c r="I12" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx2)^2 + (L12/leny2)^2 + (M12/lenz2)^2)</f>
+        <v>75.778436733097323</v>
+      </c>
+      <c r="J12" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx3)^2 + (L12/leny3)^2 + (M12/lenz3)^2)</f>
+        <v>48.507525189397171</v>
+      </c>
+      <c r="K12" s="109">
+        <v>1</v>
+      </c>
+      <c r="L12" s="109">
+        <v>1</v>
+      </c>
+      <c r="M12" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="111"/>
+      <c r="H13" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx1)^2 + (L13/leny1)^2 + (M13/lenz1)^2)</f>
+        <v>30.968017284011282</v>
+      </c>
+      <c r="I13" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx2)^2 + (L13/leny2)^2 + (M13/lenz2)^2)</f>
+        <v>38.863888028529338</v>
+      </c>
+      <c r="J13" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx3)^2 + (L13/leny3)^2 + (M13/lenz3)^2)</f>
+        <v>54.906790335986678</v>
+      </c>
+      <c r="K13" s="109">
+        <v>1</v>
+      </c>
+      <c r="L13" s="110">
+        <v>0</v>
+      </c>
+      <c r="M13" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="111"/>
+      <c r="H14" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx1)^2 + (L14/leny1)^2 + (M14/lenz1)^2)</f>
+        <v>61.805791855478034</v>
+      </c>
+      <c r="I14" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx2)^2 + (L14/leny2)^2 + (M14/lenz2)^2)</f>
+        <v>77.334449791393666</v>
+      </c>
+      <c r="J14" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx3)^2 + (L14/leny3)^2 + (M14/lenz3)^2)</f>
+        <v>54.906790335986678</v>
+      </c>
+      <c r="K14" s="109">
+        <v>0</v>
+      </c>
+      <c r="L14" s="109">
+        <v>1</v>
+      </c>
+      <c r="M14" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="111"/>
+      <c r="H15" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx1)^2 + (L15/leny1)^2 + (M15/lenz1)^2)</f>
+        <v>69.974192666793044</v>
+      </c>
+      <c r="I15" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx2)^2 + (L15/leny2)^2 + (M15/lenz2)^2)</f>
+        <v>87.46774083349132</v>
+      </c>
+      <c r="J15" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx3)^2 + (L15/leny3)^2 + (M15/lenz3)^2)</f>
+        <v>76.697131628242801</v>
+      </c>
+      <c r="K15" s="109">
+        <v>2</v>
+      </c>
+      <c r="L15" s="109">
+        <v>1</v>
+      </c>
+      <c r="M15" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="111"/>
+      <c r="H16" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx1)^2 + (L16/leny1)^2 + (M16/lenz1)^2)</f>
+        <v>116.09996156979999</v>
+      </c>
+      <c r="I16" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx2)^2 + (L16/leny2)^2 + (M16/lenz2)^2)</f>
+        <v>145.12495196225001</v>
+      </c>
+      <c r="J16" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx3)^2 + (L16/leny3)^2 + (M16/lenz3)^2)</f>
+        <v>76.697131628242801</v>
+      </c>
+      <c r="K16" s="109">
+        <v>1</v>
+      </c>
+      <c r="L16" s="109">
+        <v>2</v>
+      </c>
+      <c r="M16" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="111"/>
+      <c r="H17" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx1)^2 + (L17/leny1)^2 + (M17/lenz1)^2)</f>
+        <v>73.998245210257309</v>
+      </c>
+      <c r="I17" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx2)^2 + (L17/leny2)^2 + (M17/lenz2)^2)</f>
+        <v>92.755529699403994</v>
+      </c>
+      <c r="J17" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx3)^2 + (L17/leny3)^2 + (M17/lenz3)^2)</f>
+        <v>92.355576442356764</v>
+      </c>
+      <c r="K17" s="109">
+        <v>0</v>
+      </c>
+      <c r="L17" s="109">
+        <v>1</v>
+      </c>
+      <c r="M17" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="111"/>
+      <c r="H18" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx1)^2 + (L18/leny1)^2 + (M18/lenz1)^2)</f>
+        <v>121.24549877295571</v>
+      </c>
+      <c r="I18" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx2)^2 + (L18/leny2)^2 + (M18/lenz2)^2)</f>
+        <v>151.55687346619465</v>
+      </c>
+      <c r="J18" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx3)^2 + (L18/leny3)^2 + (M18/lenz3)^2)</f>
+        <v>97.015050378794342</v>
+      </c>
+      <c r="K18" s="109">
+        <v>2</v>
+      </c>
+      <c r="L18" s="109">
+        <v>2</v>
+      </c>
+      <c r="M18" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="111"/>
+      <c r="H19" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx1)^2 + (L19/leny1)^2 + (M19/lenz1)^2)</f>
+        <v>123.61158371095607</v>
+      </c>
+      <c r="I19" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx2)^2 + (L19/leny2)^2 + (M19/lenz2)^2)</f>
+        <v>154.66889958278733</v>
+      </c>
+      <c r="J19" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx3)^2 + (L19/leny3)^2 + (M19/lenz3)^2)</f>
+        <v>109.81358067197336</v>
+      </c>
+      <c r="K19" s="109">
+        <v>0</v>
+      </c>
+      <c r="L19" s="109">
+        <v>2</v>
+      </c>
+      <c r="M19" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="111"/>
+      <c r="H20" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx1)^2 + (L20/leny1)^2 + (M20/lenz1)^2)</f>
+        <v>61.936034568022563</v>
+      </c>
+      <c r="I20" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx2)^2 + (L20/leny2)^2 + (M20/lenz2)^2)</f>
+        <v>77.727776057058676</v>
+      </c>
+      <c r="J20" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx3)^2 + (L20/leny3)^2 + (M20/lenz3)^2)</f>
+        <v>109.81358067197336</v>
+      </c>
+      <c r="K20" s="109">
+        <v>2</v>
+      </c>
+      <c r="L20" s="109">
+        <v>0</v>
+      </c>
+      <c r="M20" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx1)^2 + (L21/leny1)^2 + (M21/lenz1)^2)</f>
+        <v>65.015735574402285</v>
+      </c>
+      <c r="I21" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx2)^2 + (L21/leny2)^2 + (M21/lenz2)^2)</f>
+        <v>81.343070973942488</v>
+      </c>
+      <c r="J21" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx3)^2 + (L21/leny3)^2 + (M21/lenz3)^2)</f>
+        <v>64.73983028244669</v>
+      </c>
+      <c r="K21" s="109">
+        <v>1</v>
+      </c>
+      <c r="L21" s="109">
+        <v>1</v>
+      </c>
+      <c r="M21" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="113"/>
+      <c r="H22" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx1)^2 + (L22/leny1)^2 + (M22/lenz1)^2)</f>
+        <v>73.812707364480076</v>
+      </c>
+      <c r="I22" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx2)^2 + (L22/leny2)^2 + (M22/lenz2)^2)</f>
+        <v>92.330544286680194</v>
+      </c>
+      <c r="J22" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx3)^2 + (L22/leny3)^2 + (M22/lenz3)^2)</f>
+        <v>87.867602818103563</v>
+      </c>
+      <c r="K22" s="109">
+        <v>2</v>
+      </c>
+      <c r="L22" s="109">
+        <v>1</v>
+      </c>
+      <c r="M22" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="113"/>
+      <c r="H23" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx1)^2 + (L23/leny1)^2 + (M23/lenz1)^2)</f>
+        <v>118.45306752302338</v>
+      </c>
+      <c r="I23" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx2)^2 + (L23/leny2)^2 + (M23/lenz2)^2)</f>
+        <v>148.10663524570796</v>
+      </c>
+      <c r="J23" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx3)^2 + (L23/leny3)^2 + (M23/lenz3)^2)</f>
+        <v>87.867602818103563</v>
+      </c>
+      <c r="K23" s="109">
+        <v>1</v>
+      </c>
+      <c r="L23" s="109">
+        <v>2</v>
+      </c>
+      <c r="M23" s="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="113"/>
+      <c r="H24" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx1)^2 + (L24/leny1)^2 + (M24/lenz1)^2)</f>
+        <v>84.285824168652837</v>
+      </c>
+      <c r="I24" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx2)^2 + (L24/leny2)^2 + (M24/lenz2)^2)</f>
+        <v>105.58361886937786</v>
+      </c>
+      <c r="J24" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx3)^2 + (L24/leny3)^2 + (M24/lenz3)^2)</f>
+        <v>115.04569744236419</v>
+      </c>
+      <c r="K24" s="109">
+        <v>2</v>
+      </c>
+      <c r="L24" s="109">
+        <v>1</v>
+      </c>
+      <c r="M24" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G25" s="113"/>
+      <c r="H25" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx1)^2 + (L25/leny1)^2 + (M25/lenz1)^2)</f>
+        <v>125.24740952582063</v>
+      </c>
+      <c r="I25" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx2)^2 + (L25/leny2)^2 + (M25/lenz2)^2)</f>
+        <v>156.71166698457588</v>
+      </c>
+      <c r="J25" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx3)^2 + (L25/leny3)^2 + (M25/lenz3)^2)</f>
+        <v>115.04569744236419</v>
+      </c>
+      <c r="K25" s="109">
+        <v>1</v>
+      </c>
+      <c r="L25" s="109">
+        <v>2</v>
+      </c>
+      <c r="M25" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G26" s="113"/>
+      <c r="H26" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx1)^2 + (L26/leny1)^2 + (M26/lenz1)^2)</f>
+        <v>84.285824168652837</v>
+      </c>
+      <c r="I26" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx2)^2 + (L26/leny2)^2 + (M26/lenz2)^2)</f>
+        <v>105.58361886937786</v>
+      </c>
+      <c r="J26" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx3)^2 + (L26/leny3)^2 + (M26/lenz3)^2)</f>
+        <v>115.04569744236419</v>
+      </c>
+      <c r="K26" s="109">
+        <v>2</v>
+      </c>
+      <c r="L26" s="109">
+        <v>1</v>
+      </c>
+      <c r="M26" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="113"/>
+      <c r="H27" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx1)^2 + (L27/leny1)^2 + (M27/lenz1)^2)</f>
+        <v>130.03147114880457</v>
+      </c>
+      <c r="I27" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx2)^2 + (L27/leny2)^2 + (M27/lenz2)^2)</f>
+        <v>162.68614194788498</v>
+      </c>
+      <c r="J27" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx3)^2 + (L27/leny3)^2 + (M27/lenz3)^2)</f>
+        <v>129.47966056489338</v>
+      </c>
+      <c r="K27" s="109">
+        <v>2</v>
+      </c>
+      <c r="L27" s="109">
+        <v>2</v>
+      </c>
+      <c r="M27" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="113"/>
+      <c r="H28" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx1)^2 + (L28/leny1)^2 + (M28/lenz1)^2)</f>
+        <v>137.63587219948155</v>
+      </c>
+      <c r="I28" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx2)^2 + (L28/leny2)^2 + (M28/lenz2)^2)</f>
+        <v>172.18353909871482</v>
+      </c>
+      <c r="J28" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx3)^2 + (L28/leny3)^2 + (M28/lenz3)^2)</f>
+        <v>150.49063924377489</v>
+      </c>
+      <c r="K28" s="109">
+        <v>3</v>
+      </c>
+      <c r="L28" s="109">
+        <v>2</v>
+      </c>
+      <c r="M28" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="113"/>
+      <c r="H29" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx1)^2 + (L29/leny1)^2 + (M29/lenz1)^2)</f>
+        <v>182.3412251193111</v>
+      </c>
+      <c r="I29" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx2)^2 + (L29/leny2)^2 + (M29/lenz2)^2)</f>
+        <v>228.03124302554741</v>
+      </c>
+      <c r="J29" s="114">
+        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx3)^2 + (L29/leny3)^2 + (M29/lenz3)^2)</f>
+        <v>150.49063924377489</v>
+      </c>
+      <c r="K29" s="109">
+        <v>2</v>
+      </c>
+      <c r="L29" s="109">
+        <v>3</v>
+      </c>
+      <c r="M29" s="109">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA37CBB-84CD-4CA4-A789-ED830412899D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361888A0-5194-4FD2-9656-F35939C3C07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,105 +1188,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,9 +1198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1338,6 +1236,108 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16067,14 +16067,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
@@ -16088,20 +16088,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -16237,14 +16237,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
@@ -16408,18 +16408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16452,10 +16452,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -16493,11 +16493,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -16531,11 +16531,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -16569,11 +16569,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -16607,11 +16607,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -16645,11 +16645,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -16683,36 +16683,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16723,23 +16723,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16750,17 +16750,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16771,17 +16771,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16792,17 +16792,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16813,11 +16813,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -16830,11 +16830,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -16848,25 +16848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17014,23 +17014,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -17042,6 +17025,23 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17056,8 +17056,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17067,18 +17067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17111,10 +17111,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17152,11 +17152,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17190,11 +17190,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17228,11 +17228,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17266,11 +17266,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17304,11 +17304,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -17342,36 +17342,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17382,23 +17382,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17409,17 +17409,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17430,17 +17430,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17451,17 +17451,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17472,11 +17472,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -17489,11 +17489,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -17507,25 +17507,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17673,12 +17673,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17692,15 +17695,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17725,18 +17725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17769,10 +17769,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17810,11 +17810,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.34595692307692311</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17848,11 +17848,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.22980307692307692</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17886,11 +17886,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.32038</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17924,11 +17924,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.31133692307692307</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17962,11 +17962,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.30449846153846155</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18000,36 +18000,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.29796923076923076</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18040,23 +18040,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18067,17 +18067,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>68.763666472215434</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18088,17 +18088,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>38.788002269149942</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18109,17 +18109,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>61.283364232953708</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18130,11 +18130,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>58.771555142516931</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18147,11 +18147,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>56.915474389261988</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -18165,25 +18165,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>55.177068723702661</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -18331,12 +18331,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18350,15 +18353,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18383,18 +18383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -18430,10 +18430,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -18474,11 +18474,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.17966651439013248</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -18515,11 +18515,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.27222476016445868</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -18556,11 +18556,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.44058108725445411</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -18597,11 +18597,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.54728688899040667</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -18638,11 +18638,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.54038510735495671</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18679,36 +18679,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.53636866148926465</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18719,23 +18719,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18746,17 +18746,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>47.942697317495579</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18767,17 +18767,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>81.879674847781061</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18788,17 +18788,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>172.39889071084659</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18809,11 +18809,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>264.62918145408281</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18826,17 +18826,17 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>257.36829222232063</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="103"/>
       <c r="F19" s="13"/>
       <c r="I19" s="12">
         <v>4000</v>
@@ -18848,25 +18848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>253.24237222001631</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19014,12 +19014,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19033,16 +19037,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19067,18 +19067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19114,10 +19114,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19158,11 +19158,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19199,11 +19199,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19240,11 +19240,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19281,11 +19281,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -19322,11 +19322,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -19363,36 +19363,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19403,23 +19403,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19430,17 +19430,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19451,17 +19451,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19472,17 +19472,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19493,11 +19493,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -19510,11 +19510,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -19528,25 +19528,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19694,12 +19694,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19713,15 +19716,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19746,18 +19746,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="N1" s="76" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="N1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19793,10 +19793,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19837,11 +19837,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="93">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19878,11 +19878,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="93">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19919,11 +19919,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="93">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="78"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19960,11 +19960,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="93">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -20001,11 +20001,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="93">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -20042,36 +20042,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="93">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="I11" s="72" t="s">
+      <c r="B11" s="91"/>
+      <c r="I11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="M11" s="76" t="s">
+      <c r="J11" s="99"/>
+      <c r="M11" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="91"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -20082,23 +20082,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="80"/>
+      <c r="O12" s="96"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="91"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -20109,17 +20109,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="101">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="75"/>
+      <c r="O14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="91"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -20130,17 +20130,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="101">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="75"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="91"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -20151,17 +20151,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="101">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="75"/>
+      <c r="O16" s="102"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="91"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -20172,11 +20172,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="101">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="75"/>
+      <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -20189,11 +20189,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="101">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="102"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -20207,25 +20207,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="74">
+      <c r="N19" s="101">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="75"/>
+      <c r="O19" s="102"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="F21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="72"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -20373,12 +20373,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20392,15 +20395,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20427,42 +20427,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="90" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="L1" s="90" t="s">
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
@@ -20480,10 +20480,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20501,17 +20501,17 @@
       <c r="B4" s="59">
         <v>58</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
@@ -20527,10 +20527,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="112">
         <v>125</v>
       </c>
-      <c r="K5" s="98"/>
+      <c r="K5" s="112"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20554,10 +20554,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="112">
         <v>250</v>
       </c>
-      <c r="K6" s="98"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20581,10 +20581,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="112">
         <v>500</v>
       </c>
-      <c r="K7" s="98"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20608,10 +20608,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="112">
         <v>1000</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20648,10 +20648,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="112">
         <v>2000</v>
       </c>
-      <c r="K9" s="98"/>
+      <c r="K9" s="112"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20702,33 +20702,33 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="F13" s="91" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="F13" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="91" t="s">
+      <c r="L13" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="M13" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="92" t="s">
+      <c r="O13" s="106" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -20740,17 +20740,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -20999,18 +20999,18 @@
         <f>IF(SUM(I17:I21) &gt; 10, "ERROR", SUM(I17:I21) )</f>
         <v>10</v>
       </c>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="86"/>
+      <c r="K22" s="105"/>
       <c r="O22" s="50">
         <f>IF(SUM(O17:O21) &gt; 10, "ERROR", SUM(O17:O21) )</f>
         <v>8.6853992195166114</v>
       </c>
-      <c r="P22" s="85" t="s">
+      <c r="P22" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="86"/>
+      <c r="Q22" s="105"/>
     </row>
     <row r="24" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
@@ -21034,26 +21034,26 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="93"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
@@ -21070,18 +21070,18 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="88"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="119"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
@@ -21148,38 +21148,38 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="E34" s="90" t="s">
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="E34" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="H34" s="91" t="s">
+      <c r="F34" s="113"/>
+      <c r="H34" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="92" t="s">
+      <c r="I34" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="92" t="s">
+      <c r="J34" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="92" t="s">
+      <c r="K34" s="106" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -21317,11 +21317,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="87" t="s">
+      <c r="L40" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -21403,13 +21403,37 @@
         <f>IF(SUM(K38:K42) &gt; 10, "ERROR", SUM(K38:K42) )</f>
         <v>8.8282406190027132</v>
       </c>
-      <c r="L43" s="85" t="s">
+      <c r="L43" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="M43" s="86"/>
+      <c r="M43" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21423,30 +21447,6 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21473,24 +21473,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="H1" s="105" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="H1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="104" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="71" t="s">
         <v>100</v>
       </c>
     </row>
@@ -21504,7 +21504,7 @@
       <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="102"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="2">
         <v>1</v>
       </c>
@@ -21514,757 +21514,757 @@
       <c r="J2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" s="103" t="s">
+      <c r="K2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="70" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="80">
         <f>(volume_A)^(1/3)</f>
         <v>5.7098015415784111</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="80">
         <f>(volume_B1)^(1/3)</f>
         <v>4.5573884707963188</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="80">
         <f>(volume_B2)^(1/3)</f>
         <v>4.6415888336127793</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx1)^2 + (L3/leny1)^2 + (M3/lenz1)^2)</f>
+      <c r="H3" s="80">
+        <f t="shared" ref="H3:H29" si="0" xml:space="preserve"> (343/2)*SQRT((K3/lenx1)^2 + (L3/leny1)^2 + (M3/lenz1)^2)</f>
         <v>20.176470588235293</v>
       </c>
-      <c r="I3" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx2)^2 + (L3/leny2)^2 + (M3/lenz2)^2)</f>
+      <c r="I3" s="80">
+        <f t="shared" ref="I3:I29" si="1" xml:space="preserve"> (343/2)*SQRT((K3/lenx2)^2 + (L3/leny2)^2 + (M3/lenz2)^2)</f>
         <v>25.22058823529412</v>
       </c>
-      <c r="J3" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K3/lenx3)^2 + (L3/leny3)^2 + (M3/lenz3)^2)</f>
+      <c r="J3" s="80">
+        <f t="shared" ref="J3:J29" si="2" xml:space="preserve"> (343/2)*SQRT((K3/lenx3)^2 + (L3/leny3)^2 + (M3/lenz3)^2)</f>
         <v>34.300000000000004</v>
       </c>
-      <c r="K3" s="109">
+      <c r="K3" s="75">
         <v>1</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="75">
         <v>0</v>
       </c>
-      <c r="M3" s="109">
+      <c r="M3" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="82">
         <f xml:space="preserve"> 343/B3</f>
         <v>60.072140424197904</v>
       </c>
-      <c r="C4" s="116">
-        <f t="shared" ref="C4:D4" si="0" xml:space="preserve"> 343/C3</f>
+      <c r="C4" s="82">
+        <f t="shared" ref="C4:D4" si="3" xml:space="preserve"> 343/C3</f>
         <v>75.26240130678768</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="82">
+        <f t="shared" si="3"/>
+        <v>73.897109868093608</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="80">
         <f t="shared" si="0"/>
-        <v>73.897109868093608</v>
-      </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx1)^2 + (L4/leny1)^2 + (M4/lenz1)^2)</f>
         <v>57.166666666666664</v>
       </c>
-      <c r="I4" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx2)^2 + (L4/leny2)^2 + (M4/lenz2)^2)</f>
+      <c r="I4" s="80">
+        <f t="shared" si="1"/>
         <v>71.458333333333343</v>
       </c>
-      <c r="J4" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K4/lenx3)^2 + (L4/leny3)^2 + (M4/lenz3)^2)</f>
+      <c r="J4" s="80">
+        <f t="shared" si="2"/>
         <v>34.300000000000004</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="75">
         <v>0</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="75">
         <v>1</v>
       </c>
-      <c r="M4" s="109">
+      <c r="M4" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="82">
         <f>'CASE A'!D26</f>
         <v>1.4830822855720152</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="82">
         <f>'CASE  B1'!D26</f>
         <v>1.1767279960218797</v>
       </c>
-      <c r="D5" s="116">
+      <c r="D5" s="82">
         <f>'CASE B2'!D26</f>
         <v>0.38415919557064448</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx1)^2 + (L5/leny1)^2 + (M5/lenz1)^2)</f>
+      <c r="G5" s="74"/>
+      <c r="H5" s="80">
+        <f t="shared" si="0"/>
         <v>23.493150684931507</v>
       </c>
-      <c r="I5" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx2)^2 + (L5/leny2)^2 + (M5/lenz2)^2)</f>
+      <c r="I5" s="80">
+        <f t="shared" si="1"/>
         <v>29.568965517241381</v>
       </c>
-      <c r="J5" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K5/lenx3)^2 + (L5/leny3)^2 + (M5/lenz3)^2)</f>
+      <c r="J5" s="80">
+        <f t="shared" si="2"/>
         <v>42.875</v>
       </c>
-      <c r="K5" s="109">
+      <c r="K5" s="75">
         <v>0</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="75">
         <v>0</v>
       </c>
-      <c r="M5" s="109">
+      <c r="M5" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="82">
         <f>'CASE A'!F26</f>
         <v>1.4139603108566092</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="82">
         <f>'CASE  B1'!F26</f>
         <v>1.1215130351302505</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="82">
         <f>'CASE B2'!F26</f>
         <v>0.31866930155661588</v>
       </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx1)^2 + (L6/leny1)^2 + (M6/lenz1)^2)</f>
+      <c r="G6" s="74"/>
+      <c r="H6" s="80">
+        <f t="shared" si="0"/>
         <v>40.352941176470587</v>
       </c>
-      <c r="I6" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx2)^2 + (L6/leny2)^2 + (M6/lenz2)^2)</f>
+      <c r="I6" s="80">
+        <f t="shared" si="1"/>
         <v>50.441176470588239</v>
       </c>
-      <c r="J6" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K6/lenx3)^2 + (L6/leny3)^2 + (M6/lenz3)^2)</f>
+      <c r="J6" s="80">
+        <f t="shared" si="2"/>
         <v>68.600000000000009</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K6" s="75">
         <v>2</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="75">
         <v>0</v>
       </c>
-      <c r="M6" s="109">
+      <c r="M6" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="82">
         <f>2000*SQRT(B5/volume_A)</f>
         <v>178.51762451692113</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="82">
         <f>2000*SQRT(C5/volume_B1)</f>
         <v>222.99440402564559</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7" s="82">
         <f>2000*SQRT(D5/volume_B2)</f>
         <v>123.96115449133966</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx1)^2 + (L7/leny1)^2 + (M7/lenz1)^2)</f>
+      <c r="G7" s="74"/>
+      <c r="H7" s="80">
+        <f t="shared" si="0"/>
         <v>114.33333333333333</v>
       </c>
-      <c r="I7" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx2)^2 + (L7/leny2)^2 + (M7/lenz2)^2)</f>
+      <c r="I7" s="80">
+        <f t="shared" si="1"/>
         <v>142.91666666666669</v>
       </c>
-      <c r="J7" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K7/lenx3)^2 + (L7/leny3)^2 + (M7/lenz3)^2)</f>
+      <c r="J7" s="80">
+        <f t="shared" si="2"/>
         <v>68.600000000000009</v>
       </c>
-      <c r="K7" s="109">
+      <c r="K7" s="75">
         <v>0</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="75">
         <v>2</v>
       </c>
-      <c r="M7" s="109">
+      <c r="M7" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="82">
         <f>2000*SQRT(B6/volume_A)</f>
         <v>174.30790573817364</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="82">
         <f>2000*SQRT(C6/volume_B1)</f>
         <v>217.69982729518813</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="82">
         <f>2000*SQRT(D6/volume_B2)</f>
         <v>112.90160345302733</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx1)^2 + (L8/leny1)^2 + (M8/lenz1)^2)</f>
+      <c r="G8" s="74"/>
+      <c r="H8" s="80">
+        <f t="shared" si="0"/>
         <v>46.986301369863014</v>
       </c>
-      <c r="I8" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx2)^2 + (L8/leny2)^2 + (M8/lenz2)^2)</f>
+      <c r="I8" s="80">
+        <f t="shared" si="1"/>
         <v>59.137931034482762</v>
       </c>
-      <c r="J8" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K8/lenx3)^2 + (L8/leny3)^2 + (M8/lenz3)^2)</f>
+      <c r="J8" s="80">
+        <f t="shared" si="2"/>
         <v>85.75</v>
       </c>
-      <c r="K8" s="109">
+      <c r="K8" s="75">
         <v>0</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="75">
         <v>0</v>
       </c>
-      <c r="M8" s="109">
+      <c r="M8" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G9" s="108"/>
-      <c r="H9" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx1)^2 + (L9/leny1)^2 + (M9/lenz1)^2)</f>
+      <c r="G9" s="74"/>
+      <c r="H9" s="80">
+        <f t="shared" si="0"/>
         <v>60.529411764705884</v>
       </c>
-      <c r="I9" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx2)^2 + (L9/leny2)^2 + (M9/lenz2)^2)</f>
+      <c r="I9" s="80">
+        <f t="shared" si="1"/>
         <v>75.661764705882348</v>
       </c>
-      <c r="J9" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K9/lenx3)^2 + (L9/leny3)^2 + (M9/lenz3)^2)</f>
+      <c r="J9" s="80">
+        <f t="shared" si="2"/>
         <v>102.89999999999999</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="75">
         <v>3</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="75">
         <v>0</v>
       </c>
-      <c r="M9" s="109">
+      <c r="M9" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="108"/>
-      <c r="H10" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx1)^2 + (L10/leny1)^2 + (M10/lenz1)^2)</f>
+      <c r="G10" s="74"/>
+      <c r="H10" s="80">
+        <f t="shared" si="0"/>
         <v>171.5</v>
       </c>
-      <c r="I10" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx2)^2 + (L10/leny2)^2 + (M10/lenz2)^2)</f>
+      <c r="I10" s="80">
+        <f t="shared" si="1"/>
         <v>214.375</v>
       </c>
-      <c r="J10" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K10/lenx3)^2 + (L10/leny3)^2 + (M10/lenz3)^2)</f>
+      <c r="J10" s="80">
+        <f t="shared" si="2"/>
         <v>102.89999999999999</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="75">
         <v>0</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="75">
         <v>3</v>
       </c>
-      <c r="M10" s="109">
+      <c r="M10" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="108"/>
-      <c r="H11" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx1)^2 + (L11/leny1)^2 + (M11/lenz1)^2)</f>
+      <c r="G11" s="74"/>
+      <c r="H11" s="80">
+        <f t="shared" si="0"/>
         <v>70.479452054794521</v>
       </c>
-      <c r="I11" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx2)^2 + (L11/leny2)^2 + (M11/lenz2)^2)</f>
+      <c r="I11" s="80">
+        <f t="shared" si="1"/>
         <v>88.706896551724142</v>
       </c>
-      <c r="J11" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K11/lenx3)^2 + (L11/leny3)^2 + (M11/lenz3)^2)</f>
+      <c r="J11" s="80">
+        <f t="shared" si="2"/>
         <v>128.625</v>
       </c>
-      <c r="K11" s="109">
+      <c r="K11" s="75">
         <v>0</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="75">
         <v>0</v>
       </c>
-      <c r="M11" s="109">
+      <c r="M11" s="75">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx1)^2 + (L12/leny1)^2 + (M12/lenz1)^2)</f>
+      <c r="H12" s="80">
+        <f t="shared" si="0"/>
         <v>60.622749386477857</v>
       </c>
-      <c r="I12" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx2)^2 + (L12/leny2)^2 + (M12/lenz2)^2)</f>
+      <c r="I12" s="80">
+        <f t="shared" si="1"/>
         <v>75.778436733097323</v>
       </c>
-      <c r="J12" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K12/lenx3)^2 + (L12/leny3)^2 + (M12/lenz3)^2)</f>
+      <c r="J12" s="80">
+        <f t="shared" si="2"/>
         <v>48.507525189397171</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="75">
         <v>1</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="75">
         <v>1</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="111"/>
-      <c r="H13" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx1)^2 + (L13/leny1)^2 + (M13/lenz1)^2)</f>
+      <c r="G13" s="77"/>
+      <c r="H13" s="80">
+        <f t="shared" si="0"/>
         <v>30.968017284011282</v>
       </c>
-      <c r="I13" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx2)^2 + (L13/leny2)^2 + (M13/lenz2)^2)</f>
+      <c r="I13" s="80">
+        <f t="shared" si="1"/>
         <v>38.863888028529338</v>
       </c>
-      <c r="J13" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K13/lenx3)^2 + (L13/leny3)^2 + (M13/lenz3)^2)</f>
+      <c r="J13" s="80">
+        <f t="shared" si="2"/>
         <v>54.906790335986678</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="75">
         <v>1</v>
       </c>
-      <c r="L13" s="110">
+      <c r="L13" s="76">
         <v>0</v>
       </c>
-      <c r="M13" s="109">
+      <c r="M13" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="111"/>
-      <c r="H14" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx1)^2 + (L14/leny1)^2 + (M14/lenz1)^2)</f>
+      <c r="G14" s="77"/>
+      <c r="H14" s="80">
+        <f t="shared" si="0"/>
         <v>61.805791855478034</v>
       </c>
-      <c r="I14" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx2)^2 + (L14/leny2)^2 + (M14/lenz2)^2)</f>
+      <c r="I14" s="80">
+        <f t="shared" si="1"/>
         <v>77.334449791393666</v>
       </c>
-      <c r="J14" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K14/lenx3)^2 + (L14/leny3)^2 + (M14/lenz3)^2)</f>
+      <c r="J14" s="80">
+        <f t="shared" si="2"/>
         <v>54.906790335986678</v>
       </c>
-      <c r="K14" s="109">
+      <c r="K14" s="75">
         <v>0</v>
       </c>
-      <c r="L14" s="109">
+      <c r="L14" s="75">
         <v>1</v>
       </c>
-      <c r="M14" s="109">
+      <c r="M14" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G15" s="111"/>
-      <c r="H15" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx1)^2 + (L15/leny1)^2 + (M15/lenz1)^2)</f>
+      <c r="G15" s="77"/>
+      <c r="H15" s="80">
+        <f t="shared" si="0"/>
         <v>69.974192666793044</v>
       </c>
-      <c r="I15" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx2)^2 + (L15/leny2)^2 + (M15/lenz2)^2)</f>
+      <c r="I15" s="80">
+        <f t="shared" si="1"/>
         <v>87.46774083349132</v>
       </c>
-      <c r="J15" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K15/lenx3)^2 + (L15/leny3)^2 + (M15/lenz3)^2)</f>
+      <c r="J15" s="80">
+        <f t="shared" si="2"/>
         <v>76.697131628242801</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="75">
         <v>2</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="75">
         <v>1</v>
       </c>
-      <c r="M15" s="109">
+      <c r="M15" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="111"/>
-      <c r="H16" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx1)^2 + (L16/leny1)^2 + (M16/lenz1)^2)</f>
+      <c r="G16" s="77"/>
+      <c r="H16" s="80">
+        <f t="shared" si="0"/>
         <v>116.09996156979999</v>
       </c>
-      <c r="I16" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx2)^2 + (L16/leny2)^2 + (M16/lenz2)^2)</f>
+      <c r="I16" s="80">
+        <f t="shared" si="1"/>
         <v>145.12495196225001</v>
       </c>
-      <c r="J16" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K16/lenx3)^2 + (L16/leny3)^2 + (M16/lenz3)^2)</f>
+      <c r="J16" s="80">
+        <f t="shared" si="2"/>
         <v>76.697131628242801</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="75">
         <v>1</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="75">
         <v>2</v>
       </c>
-      <c r="M16" s="109">
+      <c r="M16" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="111"/>
-      <c r="H17" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx1)^2 + (L17/leny1)^2 + (M17/lenz1)^2)</f>
+      <c r="G17" s="77"/>
+      <c r="H17" s="80">
+        <f t="shared" si="0"/>
         <v>73.998245210257309</v>
       </c>
-      <c r="I17" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx2)^2 + (L17/leny2)^2 + (M17/lenz2)^2)</f>
+      <c r="I17" s="80">
+        <f t="shared" si="1"/>
         <v>92.755529699403994</v>
       </c>
-      <c r="J17" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K17/lenx3)^2 + (L17/leny3)^2 + (M17/lenz3)^2)</f>
+      <c r="J17" s="80">
+        <f t="shared" si="2"/>
         <v>92.355576442356764</v>
       </c>
-      <c r="K17" s="109">
+      <c r="K17" s="75">
         <v>0</v>
       </c>
-      <c r="L17" s="109">
+      <c r="L17" s="75">
         <v>1</v>
       </c>
-      <c r="M17" s="109">
+      <c r="M17" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G18" s="111"/>
-      <c r="H18" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx1)^2 + (L18/leny1)^2 + (M18/lenz1)^2)</f>
+      <c r="G18" s="77"/>
+      <c r="H18" s="80">
+        <f t="shared" si="0"/>
         <v>121.24549877295571</v>
       </c>
-      <c r="I18" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx2)^2 + (L18/leny2)^2 + (M18/lenz2)^2)</f>
+      <c r="I18" s="80">
+        <f t="shared" si="1"/>
         <v>151.55687346619465</v>
       </c>
-      <c r="J18" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K18/lenx3)^2 + (L18/leny3)^2 + (M18/lenz3)^2)</f>
+      <c r="J18" s="80">
+        <f t="shared" si="2"/>
         <v>97.015050378794342</v>
       </c>
-      <c r="K18" s="109">
+      <c r="K18" s="75">
         <v>2</v>
       </c>
-      <c r="L18" s="109">
+      <c r="L18" s="75">
         <v>2</v>
       </c>
-      <c r="M18" s="109">
+      <c r="M18" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G19" s="111"/>
-      <c r="H19" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx1)^2 + (L19/leny1)^2 + (M19/lenz1)^2)</f>
+      <c r="G19" s="77"/>
+      <c r="H19" s="80">
+        <f t="shared" si="0"/>
         <v>123.61158371095607</v>
       </c>
-      <c r="I19" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx2)^2 + (L19/leny2)^2 + (M19/lenz2)^2)</f>
+      <c r="I19" s="80">
+        <f t="shared" si="1"/>
         <v>154.66889958278733</v>
       </c>
-      <c r="J19" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K19/lenx3)^2 + (L19/leny3)^2 + (M19/lenz3)^2)</f>
+      <c r="J19" s="80">
+        <f t="shared" si="2"/>
         <v>109.81358067197336</v>
       </c>
-      <c r="K19" s="109">
+      <c r="K19" s="75">
         <v>0</v>
       </c>
-      <c r="L19" s="109">
+      <c r="L19" s="75">
         <v>2</v>
       </c>
-      <c r="M19" s="109">
+      <c r="M19" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="111"/>
-      <c r="H20" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx1)^2 + (L20/leny1)^2 + (M20/lenz1)^2)</f>
+      <c r="G20" s="77"/>
+      <c r="H20" s="80">
+        <f t="shared" si="0"/>
         <v>61.936034568022563</v>
       </c>
-      <c r="I20" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx2)^2 + (L20/leny2)^2 + (M20/lenz2)^2)</f>
+      <c r="I20" s="80">
+        <f t="shared" si="1"/>
         <v>77.727776057058676</v>
       </c>
-      <c r="J20" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K20/lenx3)^2 + (L20/leny3)^2 + (M20/lenz3)^2)</f>
+      <c r="J20" s="80">
+        <f t="shared" si="2"/>
         <v>109.81358067197336</v>
       </c>
-      <c r="K20" s="109">
+      <c r="K20" s="75">
         <v>2</v>
       </c>
-      <c r="L20" s="109">
+      <c r="L20" s="75">
         <v>0</v>
       </c>
-      <c r="M20" s="109">
+      <c r="M20" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="7:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx1)^2 + (L21/leny1)^2 + (M21/lenz1)^2)</f>
+      <c r="H21" s="80">
+        <f t="shared" si="0"/>
         <v>65.015735574402285</v>
       </c>
-      <c r="I21" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx2)^2 + (L21/leny2)^2 + (M21/lenz2)^2)</f>
+      <c r="I21" s="80">
+        <f t="shared" si="1"/>
         <v>81.343070973942488</v>
       </c>
-      <c r="J21" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K21/lenx3)^2 + (L21/leny3)^2 + (M21/lenz3)^2)</f>
+      <c r="J21" s="80">
+        <f t="shared" si="2"/>
         <v>64.73983028244669</v>
       </c>
-      <c r="K21" s="109">
+      <c r="K21" s="75">
         <v>1</v>
       </c>
-      <c r="L21" s="109">
+      <c r="L21" s="75">
         <v>1</v>
       </c>
-      <c r="M21" s="109">
+      <c r="M21" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="113"/>
-      <c r="H22" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx1)^2 + (L22/leny1)^2 + (M22/lenz1)^2)</f>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80">
+        <f t="shared" si="0"/>
         <v>73.812707364480076</v>
       </c>
-      <c r="I22" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx2)^2 + (L22/leny2)^2 + (M22/lenz2)^2)</f>
+      <c r="I22" s="80">
+        <f t="shared" si="1"/>
         <v>92.330544286680194</v>
       </c>
-      <c r="J22" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K22/lenx3)^2 + (L22/leny3)^2 + (M22/lenz3)^2)</f>
+      <c r="J22" s="80">
+        <f t="shared" si="2"/>
         <v>87.867602818103563</v>
       </c>
-      <c r="K22" s="109">
+      <c r="K22" s="75">
         <v>2</v>
       </c>
-      <c r="L22" s="109">
+      <c r="L22" s="75">
         <v>1</v>
       </c>
-      <c r="M22" s="109">
+      <c r="M22" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="113"/>
-      <c r="H23" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx1)^2 + (L23/leny1)^2 + (M23/lenz1)^2)</f>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80">
+        <f t="shared" si="0"/>
         <v>118.45306752302338</v>
       </c>
-      <c r="I23" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx2)^2 + (L23/leny2)^2 + (M23/lenz2)^2)</f>
+      <c r="I23" s="80">
+        <f t="shared" si="1"/>
         <v>148.10663524570796</v>
       </c>
-      <c r="J23" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K23/lenx3)^2 + (L23/leny3)^2 + (M23/lenz3)^2)</f>
+      <c r="J23" s="80">
+        <f t="shared" si="2"/>
         <v>87.867602818103563</v>
       </c>
-      <c r="K23" s="109">
+      <c r="K23" s="75">
         <v>1</v>
       </c>
-      <c r="L23" s="109">
+      <c r="L23" s="75">
         <v>2</v>
       </c>
-      <c r="M23" s="109">
+      <c r="M23" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="113"/>
-      <c r="H24" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx1)^2 + (L24/leny1)^2 + (M24/lenz1)^2)</f>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80">
+        <f t="shared" si="0"/>
         <v>84.285824168652837</v>
       </c>
-      <c r="I24" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx2)^2 + (L24/leny2)^2 + (M24/lenz2)^2)</f>
+      <c r="I24" s="80">
+        <f t="shared" si="1"/>
         <v>105.58361886937786</v>
       </c>
-      <c r="J24" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K24/lenx3)^2 + (L24/leny3)^2 + (M24/lenz3)^2)</f>
+      <c r="J24" s="80">
+        <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K24" s="109">
+      <c r="K24" s="75">
         <v>2</v>
       </c>
-      <c r="L24" s="109">
+      <c r="L24" s="75">
         <v>1</v>
       </c>
-      <c r="M24" s="109">
+      <c r="M24" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="113"/>
-      <c r="H25" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx1)^2 + (L25/leny1)^2 + (M25/lenz1)^2)</f>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80">
+        <f t="shared" si="0"/>
         <v>125.24740952582063</v>
       </c>
-      <c r="I25" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx2)^2 + (L25/leny2)^2 + (M25/lenz2)^2)</f>
+      <c r="I25" s="80">
+        <f t="shared" si="1"/>
         <v>156.71166698457588</v>
       </c>
-      <c r="J25" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K25/lenx3)^2 + (L25/leny3)^2 + (M25/lenz3)^2)</f>
+      <c r="J25" s="80">
+        <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K25" s="109">
+      <c r="K25" s="75">
         <v>1</v>
       </c>
-      <c r="L25" s="109">
+      <c r="L25" s="75">
         <v>2</v>
       </c>
-      <c r="M25" s="109">
+      <c r="M25" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="113"/>
-      <c r="H26" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx1)^2 + (L26/leny1)^2 + (M26/lenz1)^2)</f>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80">
+        <f t="shared" si="0"/>
         <v>84.285824168652837</v>
       </c>
-      <c r="I26" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx2)^2 + (L26/leny2)^2 + (M26/lenz2)^2)</f>
+      <c r="I26" s="80">
+        <f t="shared" si="1"/>
         <v>105.58361886937786</v>
       </c>
-      <c r="J26" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K26/lenx3)^2 + (L26/leny3)^2 + (M26/lenz3)^2)</f>
+      <c r="J26" s="80">
+        <f t="shared" si="2"/>
         <v>115.04569744236419</v>
       </c>
-      <c r="K26" s="109">
+      <c r="K26" s="75">
         <v>2</v>
       </c>
-      <c r="L26" s="109">
+      <c r="L26" s="75">
         <v>1</v>
       </c>
-      <c r="M26" s="109">
+      <c r="M26" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G27" s="113"/>
-      <c r="H27" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx1)^2 + (L27/leny1)^2 + (M27/lenz1)^2)</f>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80">
+        <f t="shared" si="0"/>
         <v>130.03147114880457</v>
       </c>
-      <c r="I27" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx2)^2 + (L27/leny2)^2 + (M27/lenz2)^2)</f>
+      <c r="I27" s="80">
+        <f t="shared" si="1"/>
         <v>162.68614194788498</v>
       </c>
-      <c r="J27" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K27/lenx3)^2 + (L27/leny3)^2 + (M27/lenz3)^2)</f>
+      <c r="J27" s="80">
+        <f t="shared" si="2"/>
         <v>129.47966056489338</v>
       </c>
-      <c r="K27" s="109">
+      <c r="K27" s="75">
         <v>2</v>
       </c>
-      <c r="L27" s="109">
+      <c r="L27" s="75">
         <v>2</v>
       </c>
-      <c r="M27" s="109">
+      <c r="M27" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G28" s="113"/>
-      <c r="H28" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx1)^2 + (L28/leny1)^2 + (M28/lenz1)^2)</f>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80">
+        <f t="shared" si="0"/>
         <v>137.63587219948155</v>
       </c>
-      <c r="I28" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx2)^2 + (L28/leny2)^2 + (M28/lenz2)^2)</f>
+      <c r="I28" s="80">
+        <f t="shared" si="1"/>
         <v>172.18353909871482</v>
       </c>
-      <c r="J28" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K28/lenx3)^2 + (L28/leny3)^2 + (M28/lenz3)^2)</f>
+      <c r="J28" s="80">
+        <f t="shared" si="2"/>
         <v>150.49063924377489</v>
       </c>
-      <c r="K28" s="109">
+      <c r="K28" s="75">
         <v>3</v>
       </c>
-      <c r="L28" s="109">
+      <c r="L28" s="75">
         <v>2</v>
       </c>
-      <c r="M28" s="109">
+      <c r="M28" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29" s="113"/>
-      <c r="H29" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx1)^2 + (L29/leny1)^2 + (M29/lenz1)^2)</f>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80">
+        <f t="shared" si="0"/>
         <v>182.3412251193111</v>
       </c>
-      <c r="I29" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx2)^2 + (L29/leny2)^2 + (M29/lenz2)^2)</f>
+      <c r="I29" s="80">
+        <f t="shared" si="1"/>
         <v>228.03124302554741</v>
       </c>
-      <c r="J29" s="114">
-        <f xml:space="preserve"> (343/2)*SQRT((K29/lenx3)^2 + (L29/leny3)^2 + (M29/lenz3)^2)</f>
+      <c r="J29" s="80">
+        <f t="shared" si="2"/>
         <v>150.49063924377489</v>
       </c>
-      <c r="K29" s="109">
+      <c r="K29" s="75">
         <v>2</v>
       </c>
-      <c r="L29" s="109">
+      <c r="L29" s="75">
         <v>3</v>
       </c>
-      <c r="M29" s="109">
+      <c r="M29" s="75">
         <v>2</v>
       </c>
     </row>

--- a/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
+++ b/RoomAcoustics/6_room_design_absorption/Copy of room_design_abs_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361888A0-5194-4FD2-9656-F35939C3C07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5515B-51A3-42C2-BC7F-125BA0BC1FD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1249,7 +1249,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1273,16 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1294,10 +1294,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1306,34 +1318,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16408,18 +16408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -16452,10 +16452,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -16493,11 +16493,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.14322978529008681</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -16531,11 +16531,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" ref="N5:N9" si="0">1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
         <v>0.10523069894929193</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -16569,11 +16569,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>9.174280493375972E-2</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -16607,11 +16607,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>6.7512562814070379E-2</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -16645,11 +16645,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>6.1685701233439943E-2</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -16683,36 +16683,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>6.1831886706258575E-2</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -16723,23 +16723,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -16750,17 +16750,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>36.594409401376723</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -16771,17 +16771,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>25.744066065912751</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -16792,17 +16792,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>22.111027701283842</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -16813,11 +16813,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>15.848470886212384</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -16830,11 +16830,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>14.390700448399931</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -16848,25 +16848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>14.427051834538505</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17014,6 +17014,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -17025,23 +17042,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17056,7 +17056,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:O9"/>
     </sheetView>
   </sheetViews>
@@ -17067,18 +17067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17111,10 +17111,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17152,11 +17152,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.14411021814006889</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17190,11 +17190,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" si="0"/>
         <v>0.10610792192881746</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17228,11 +17228,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>9.2353616532721006E-2</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17266,11 +17266,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>6.7967853042479931E-2</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17304,11 +17304,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>6.1980482204362801E-2</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -17342,36 +17342,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>6.1923076923076942E-2</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -17382,23 +17382,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -17409,17 +17409,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>23.464703546708158</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -17430,17 +17430,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>16.542489146908476</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -17451,17 +17451,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>14.179971665654724</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -17472,11 +17472,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>10.162739591032276</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -17489,11 +17489,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>9.2083371786319699</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -17507,25 +17507,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>9.1992455924559273</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -17673,15 +17673,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17695,12 +17692,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17725,18 +17725,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -17769,10 +17769,10 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -17810,11 +17810,11 @@
       <c r="J4" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.34595692307692311</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -17848,11 +17848,11 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" si="0"/>
         <v>0.22980307692307692</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -17886,11 +17886,11 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>0.32038</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -17924,11 +17924,11 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>0.31133692307692307</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -17962,11 +17962,11 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>0.30449846153846155</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18000,36 +18000,36 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>0.29796923076923076</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18040,23 +18040,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18067,17 +18067,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>68.763666472215434</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18088,17 +18088,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>38.788002269149942</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18109,17 +18109,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>61.283364232953708</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18130,11 +18130,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>58.771555142516931</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18147,11 +18147,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>56.915474389261988</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -18165,25 +18165,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>55.177068723702661</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -18331,15 +18331,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -18353,12 +18350,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18383,18 +18383,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -18430,10 +18430,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -18474,11 +18474,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.17966651439013248</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -18515,11 +18515,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" si="0"/>
         <v>0.27222476016445868</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -18556,11 +18556,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>0.44058108725445411</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -18597,11 +18597,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>0.54728688899040667</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -18638,11 +18638,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>0.54038510735495671</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -18679,36 +18679,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>0.53636866148926465</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -18719,23 +18719,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -18746,17 +18746,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>47.942697317495579</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -18767,17 +18767,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>81.879674847781061</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -18788,17 +18788,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>172.39889071084659</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -18809,11 +18809,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>264.62918145408281</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -18826,11 +18826,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>257.36829222232063</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="103" t="s">
@@ -18848,25 +18848,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>253.24237222001631</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19014,16 +19014,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19037,12 +19033,16 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19067,18 +19067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19114,10 +19114,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19158,11 +19158,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.18063145809414469</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19199,11 +19199,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" si="0"/>
         <v>0.27305396096440876</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19240,11 +19240,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>0.44091963260619982</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19281,11 +19281,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>0.54718484500574061</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -19322,11 +19322,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>0.5401308840413318</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -19363,36 +19363,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>0.53591044776119412</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -19403,23 +19403,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -19430,17 +19430,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>30.722194851962396</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -19451,17 +19451,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>52.346113681949554</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -19472,17 +19472,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>109.9064885544779</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -19493,11 +19493,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>168.40355089477237</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -19510,11 +19510,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>163.68274665082163</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -19528,25 +19528,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>160.92687206535027</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -19694,15 +19694,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -19716,12 +19713,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19746,18 +19746,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="N1" s="92" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="N1" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -19793,10 +19793,10 @@
       <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -19837,11 +19837,11 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="96">
         <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.19182153846153846</v>
       </c>
-      <c r="O4" s="94"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -19878,11 +19878,11 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="96">
         <f t="shared" si="0"/>
         <v>0.26621846153846151</v>
       </c>
-      <c r="O5" s="94"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -19919,11 +19919,11 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="96">
         <f t="shared" si="0"/>
         <v>0.38865538461538468</v>
       </c>
-      <c r="O6" s="94"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -19960,11 +19960,11 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="96">
         <f t="shared" si="0"/>
         <v>0.43475230769230772</v>
       </c>
-      <c r="O7" s="94"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -20001,11 +20001,11 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="96">
         <f t="shared" si="0"/>
         <v>0.43422307692307704</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -20042,36 +20042,36 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="96">
         <f t="shared" si="0"/>
         <v>0.42225692307692314</v>
       </c>
-      <c r="O9" s="94"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="I11" s="99" t="s">
+      <c r="B11" s="102"/>
+      <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="M11" s="92" t="s">
+      <c r="J11" s="91"/>
+      <c r="M11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="102"/>
       <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
@@ -20082,23 +20082,23 @@
       <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="N12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="102"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="102"/>
       <c r="I14" s="12">
         <v>125</v>
       </c>
@@ -20109,17 +20109,17 @@
       <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="93">
         <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>30.855561224101301</v>
       </c>
-      <c r="O14" s="102"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="102"/>
       <c r="I15" s="12">
         <v>250</v>
       </c>
@@ -20130,17 +20130,17 @@
       <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="93">
         <f t="shared" si="3"/>
         <v>47.164446345380512</v>
       </c>
-      <c r="O15" s="102"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="102"/>
       <c r="I16" s="12">
         <v>500</v>
       </c>
@@ -20151,17 +20151,17 @@
       <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="93">
         <f t="shared" si="3"/>
         <v>82.64602112870999</v>
       </c>
-      <c r="O16" s="102"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="102"/>
       <c r="I17" s="12">
         <v>1000</v>
       </c>
@@ -20172,11 +20172,11 @@
       <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="93">
         <f t="shared" si="3"/>
         <v>99.987670483464015</v>
       </c>
-      <c r="O17" s="102"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
@@ -20189,11 +20189,11 @@
       <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="93">
         <f t="shared" si="3"/>
         <v>99.772538782613466</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F19" s="13"/>
@@ -20207,25 +20207,25 @@
       <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="93">
         <f t="shared" si="3"/>
         <v>95.013514125256648</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="F21" s="92"/>
+      <c r="I21" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="99"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -20373,15 +20373,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -20395,12 +20392,15 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20427,42 +20427,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="113" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="L1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
@@ -20480,10 +20480,10 @@
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="112" t="s">
+      <c r="J3" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="112"/>
+      <c r="K3" s="117"/>
       <c r="L3" s="44" t="s">
         <v>69</v>
       </c>
@@ -20501,17 +20501,17 @@
       <c r="B4" s="59">
         <v>58</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="45"/>
       <c r="M4" s="27"/>
       <c r="N4" s="30"/>
@@ -20527,10 +20527,10 @@
         <f>G5-H5</f>
         <v>60</v>
       </c>
-      <c r="J5" s="112">
+      <c r="J5" s="117">
         <v>125</v>
       </c>
-      <c r="K5" s="112"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="46">
         <v>67.5</v>
       </c>
@@ -20554,10 +20554,10 @@
         <f t="shared" ref="I6:I9" si="0">G6-H6</f>
         <v>59</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="117">
         <v>250</v>
       </c>
-      <c r="K6" s="112"/>
+      <c r="K6" s="117"/>
       <c r="L6" s="46">
         <v>69</v>
       </c>
@@ -20581,10 +20581,10 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J7" s="112">
+      <c r="J7" s="117">
         <v>500</v>
       </c>
-      <c r="K7" s="112"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="46">
         <v>70.5</v>
       </c>
@@ -20608,10 +20608,10 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="117">
         <v>1000</v>
       </c>
-      <c r="K8" s="112"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="46">
         <v>72</v>
       </c>
@@ -20648,10 +20648,10 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="117">
         <v>2000</v>
       </c>
-      <c r="K9" s="112"/>
+      <c r="K9" s="117"/>
       <c r="L9" s="46">
         <v>72</v>
       </c>
@@ -20702,33 +20702,33 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="F13" s="107" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="F13" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="107" t="s">
+      <c r="L13" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="106" t="s">
+      <c r="M13" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="106" t="s">
+      <c r="N13" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="106" t="s">
+      <c r="O13" s="111" t="s">
         <v>59</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -20740,17 +20740,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -21034,26 +21034,26 @@
       <c r="S24" s="54"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="108"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
@@ -21070,18 +21070,18 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="91" t="s">
+      <c r="H29" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="119"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="107"/>
       <c r="L29" s="28" t="s">
         <v>84</v>
       </c>
@@ -21148,38 +21148,38 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="E34" s="113" t="s">
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="E34" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="113"/>
-      <c r="H34" s="107" t="s">
+      <c r="F34" s="109"/>
+      <c r="H34" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="106" t="s">
+      <c r="I34" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="111" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -21317,11 +21317,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -21410,30 +21410,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F13:F14"/>
@@ -21447,6 +21423,30 @@
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21462,8 +21462,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
